--- a/back/routes/dummyIndividual.xlsx
+++ b/back/routes/dummyIndividual.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="229" uniqueCount="149">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="265" uniqueCount="185">
   <si>
     <t>김일일</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -569,6 +569,150 @@
   </si>
   <si>
     <t>생년월일</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>시작일</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>중구 동인동</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>중구 삼덕동</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>중구 성내1동</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>중구 성내2동</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>중구 남일동</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>동구 신암1동</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>동구 신암2동</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>동구 신암3동</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>동구 신암4동</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>동구 신암5동</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>서구 평리1동</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>서구 평리2동</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>서구 상중이동</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>서구 비산1동</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>서구 비산2동</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>남구 대명1동</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>남구 대명2동</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>남구 대명3동</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>남구 대명4동</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>남구 대명5동</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>북구 칠성동</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>북구 산격1동</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>북구 산격2동</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>북구 산격3동</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>북구 산격4동</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>수성구 만촌1동</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>수성구 만촌2동</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>수성구 만촌3동</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>수성구 수성1가동</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>수성구 수성2가동</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>달서구 두류1동</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>달서구 두류2동</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>달서구 두류3동</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>달서구 두류4동</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>달서구 본리동</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -936,8 +1080,8 @@
   <sheetPr codeName="Sheet1"/>
   <dimension ref="A1:U204"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="H5" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="Q10" sqref="Q10"/>
+    <sheetView tabSelected="1" topLeftCell="I1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="S15" sqref="S15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -952,11 +1096,13 @@
     <col min="9" max="9" width="23.375" style="1" customWidth="1"/>
     <col min="10" max="10" width="11.875" style="1" customWidth="1"/>
     <col min="11" max="11" width="20.5" style="1" customWidth="1"/>
-    <col min="12" max="12" width="9" style="1"/>
+    <col min="12" max="12" width="27" style="1" customWidth="1"/>
     <col min="13" max="13" width="22" style="1" customWidth="1"/>
     <col min="14" max="14" width="13.875" style="1" customWidth="1"/>
     <col min="15" max="15" width="17.5" style="1" customWidth="1"/>
-    <col min="16" max="16384" width="9" style="1"/>
+    <col min="16" max="16" width="9" style="1"/>
+    <col min="17" max="17" width="38.5" style="1" customWidth="1"/>
+    <col min="18" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:21" x14ac:dyDescent="0.3">
@@ -1005,6 +1151,12 @@
       <c r="O1" s="1" t="s">
         <v>148</v>
       </c>
+      <c r="P1" s="1" t="s">
+        <v>149</v>
+      </c>
+      <c r="Q1" s="1" t="s">
+        <v>150</v>
+      </c>
       <c r="T1"/>
       <c r="U1"/>
     </row>
@@ -1022,12 +1174,12 @@
         <v>28</v>
       </c>
       <c r="E2" s="2" t="str">
-        <f ca="1">"대구 " &amp; INDEX($L$1:$L$8, RANDBETWEEN(1, 8))</f>
-        <v>대구 수성구</v>
+        <f ca="1">"대구 " &amp; INDEX($Q$1:$Q$35, RANDBETWEEN(1, 8))</f>
+        <v>대구 동구 신암2동</v>
       </c>
       <c r="F2" s="1" t="str">
         <f ca="1">"0" &amp; TEXT(RANDBETWEEN(1000000000, 1099999999), "0000000000")</f>
-        <v>01060681149</v>
+        <v>01031566180</v>
       </c>
       <c r="G2" s="4" t="s">
         <v>32</v>
@@ -1041,11 +1193,11 @@
       </c>
       <c r="J2" s="1" t="str">
         <f ca="1">"0" &amp; TEXT(RANDBETWEEN(1, 9), "0")</f>
-        <v>05</v>
+        <v>08</v>
       </c>
       <c r="K2" s="2">
-        <f ca="1">RANDBETWEEN(0,10)</f>
-        <v>7</v>
+        <f ca="1">RANDBETWEEN(0,84)</f>
+        <v>73</v>
       </c>
       <c r="L2" s="1" t="s">
         <v>71</v>
@@ -1055,11 +1207,18 @@
       </c>
       <c r="N2" t="str">
         <f ca="1">INDEX($L$12:$L$15, RANDBETWEEN(1, 4))</f>
-        <v>경영학과</v>
+        <v>세무학과</v>
       </c>
       <c r="O2" s="5" t="str">
         <f ca="1">TEXT(INT((DATE(2001,1,1)-DATE(1980,1,1)+1)*RAND()+DATE(1980,1,1)), "YYYYMMDD")</f>
-        <v>19881224</v>
+        <v>19950904</v>
+      </c>
+      <c r="P2" s="1" t="str">
+        <f ca="1">TEXT(RANDBETWEEN(1, 31), "0")</f>
+        <v>16</v>
+      </c>
+      <c r="Q2" s="1" t="s">
+        <v>151</v>
       </c>
       <c r="R2" s="2"/>
       <c r="S2" s="2"/>
@@ -1078,30 +1237,30 @@
         <v>0</v>
       </c>
       <c r="E3" s="3" t="str">
-        <f t="shared" ref="E3:E51" ca="1" si="0">"대구 " &amp; INDEX($L$1:$L$8, RANDBETWEEN(1, 8))</f>
-        <v>대구 수성구</v>
+        <f t="shared" ref="E3:E51" ca="1" si="0">"대구 " &amp; INDEX($Q$1:$Q$35, RANDBETWEEN(1, 8))</f>
+        <v>대구 중구 삼덕동</v>
       </c>
       <c r="F3" s="2" t="str">
         <f t="shared" ref="F3:F51" ca="1" si="1">"0" &amp; TEXT(RANDBETWEEN(1000000000, 1099999999), "0000000000")</f>
-        <v>01045735595</v>
+        <v>01054880165</v>
       </c>
       <c r="G3" s="4" t="s">
         <v>33</v>
       </c>
       <c r="H3" s="3" t="str">
         <f t="shared" ref="H3:H51" ca="1" si="2">INDEX($L$9:$L$11, RANDBETWEEN(1, 3))</f>
-        <v>모두가능</v>
+        <v>출퇴근</v>
       </c>
       <c r="I3" s="2">
         <v>2024</v>
       </c>
       <c r="J3" s="2" t="str">
         <f t="shared" ref="J3:J51" ca="1" si="3">"0" &amp; TEXT(RANDBETWEEN(1, 9), "0")</f>
-        <v>08</v>
-      </c>
-      <c r="K3" s="2">
-        <f ca="1">RANDBETWEEN(0,10)</f>
-        <v>7</v>
+        <v>06</v>
+      </c>
+      <c r="K3" s="3">
+        <f t="shared" ref="K3:K51" ca="1" si="4">RANDBETWEEN(0,84)</f>
+        <v>76</v>
       </c>
       <c r="L3" s="1" t="s">
         <v>72</v>
@@ -1110,12 +1269,19 @@
         <v>101</v>
       </c>
       <c r="N3" t="str">
-        <f t="shared" ref="N3:N51" ca="1" si="4">INDEX($L$12:$L$15, RANDBETWEEN(1, 4))</f>
-        <v>세무학과</v>
+        <f t="shared" ref="N3:N51" ca="1" si="5">INDEX($L$12:$L$15, RANDBETWEEN(1, 4))</f>
+        <v>회계학과</v>
       </c>
       <c r="O3" s="5" t="str">
-        <f t="shared" ref="O3:O51" ca="1" si="5">TEXT(INT((DATE(2001,1,1)-DATE(1980,1,1)+1)*RAND()+DATE(1980,1,1)), "YYYYMMDD")</f>
-        <v>19960119</v>
+        <f t="shared" ref="O3:O51" ca="1" si="6">TEXT(INT((DATE(2001,1,1)-DATE(1980,1,1)+1)*RAND()+DATE(1980,1,1)), "YYYYMMDD")</f>
+        <v>19940220</v>
+      </c>
+      <c r="P3" s="3" t="str">
+        <f t="shared" ref="P3:P51" ca="1" si="7">TEXT(RANDBETWEEN(1, 31), "0")</f>
+        <v>17</v>
+      </c>
+      <c r="Q3" s="1" t="s">
+        <v>152</v>
       </c>
       <c r="R3" s="2"/>
       <c r="S3" s="2"/>
@@ -1135,18 +1301,18 @@
       </c>
       <c r="E4" s="3" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>대구 북구</v>
+        <v>대구 중구 남일동</v>
       </c>
       <c r="F4" s="2" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>01099283210</v>
+        <v>01067276833</v>
       </c>
       <c r="G4" s="4" t="s">
         <v>34</v>
       </c>
       <c r="H4" s="3" t="str">
         <f t="shared" ca="1" si="2"/>
-        <v>모두가능</v>
+        <v>출퇴근</v>
       </c>
       <c r="I4" s="2">
         <v>2024</v>
@@ -1155,9 +1321,9 @@
         <f t="shared" ca="1" si="3"/>
         <v>06</v>
       </c>
-      <c r="K4" s="2">
-        <f ca="1">RANDBETWEEN(0,10)</f>
-        <v>3</v>
+      <c r="K4" s="3">
+        <f t="shared" ca="1" si="4"/>
+        <v>22</v>
       </c>
       <c r="L4" s="1" t="s">
         <v>73</v>
@@ -1166,12 +1332,19 @@
         <v>102</v>
       </c>
       <c r="N4" t="str">
-        <f t="shared" ca="1" si="4"/>
+        <f t="shared" ca="1" si="5"/>
         <v>경영학과</v>
       </c>
       <c r="O4" s="5" t="str">
-        <f t="shared" ca="1" si="5"/>
-        <v>19970417</v>
+        <f t="shared" ca="1" si="6"/>
+        <v>19971123</v>
+      </c>
+      <c r="P4" s="3" t="str">
+        <f t="shared" ca="1" si="7"/>
+        <v>24</v>
+      </c>
+      <c r="Q4" s="1" t="s">
+        <v>153</v>
       </c>
       <c r="R4" s="2"/>
       <c r="S4" s="2"/>
@@ -1191,29 +1364,29 @@
       </c>
       <c r="E5" s="3" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>대구 동구</v>
+        <v>대구 중구 성내1동</v>
       </c>
       <c r="F5" s="2" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>01029528083</v>
+        <v>01088058249</v>
       </c>
       <c r="G5" s="4" t="s">
         <v>35</v>
       </c>
       <c r="H5" s="3" t="str">
         <f t="shared" ca="1" si="2"/>
-        <v>출퇴근</v>
+        <v>모두가능</v>
       </c>
       <c r="I5" s="2">
         <v>2024</v>
       </c>
       <c r="J5" s="2" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>08</v>
-      </c>
-      <c r="K5" s="2">
-        <f t="shared" ref="K5:K51" ca="1" si="6">RANDBETWEEN(0,10)</f>
-        <v>8</v>
+        <v>05</v>
+      </c>
+      <c r="K5" s="3">
+        <f t="shared" ca="1" si="4"/>
+        <v>51</v>
       </c>
       <c r="L5" s="1" t="s">
         <v>74</v>
@@ -1222,12 +1395,19 @@
         <v>103</v>
       </c>
       <c r="N5" t="str">
-        <f t="shared" ca="1" si="4"/>
+        <f t="shared" ca="1" si="5"/>
         <v>경영학과</v>
       </c>
       <c r="O5" s="5" t="str">
-        <f t="shared" ca="1" si="5"/>
-        <v>19850321</v>
+        <f t="shared" ca="1" si="6"/>
+        <v>19881225</v>
+      </c>
+      <c r="P5" s="3" t="str">
+        <f t="shared" ca="1" si="7"/>
+        <v>1</v>
+      </c>
+      <c r="Q5" s="1" t="s">
+        <v>154</v>
       </c>
       <c r="R5" s="2"/>
       <c r="S5" s="2"/>
@@ -1247,29 +1427,29 @@
       </c>
       <c r="E6" s="3" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>대구 남구</v>
+        <v>대구 동구 신암2동</v>
       </c>
       <c r="F6" s="2" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>01023467776</v>
+        <v>01069669920</v>
       </c>
       <c r="G6" s="4" t="s">
         <v>36</v>
       </c>
       <c r="H6" s="3" t="str">
         <f t="shared" ca="1" si="2"/>
-        <v>모두가능</v>
+        <v>재택</v>
       </c>
       <c r="I6" s="2">
         <v>2024</v>
       </c>
       <c r="J6" s="2" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>08</v>
-      </c>
-      <c r="K6" s="2">
-        <f t="shared" ca="1" si="6"/>
-        <v>0</v>
+        <v>09</v>
+      </c>
+      <c r="K6" s="3">
+        <f t="shared" ca="1" si="4"/>
+        <v>32</v>
       </c>
       <c r="L6" s="1" t="s">
         <v>75</v>
@@ -1278,12 +1458,19 @@
         <v>104</v>
       </c>
       <c r="N6" t="str">
-        <f t="shared" ca="1" si="4"/>
+        <f t="shared" ca="1" si="5"/>
         <v>경영학과</v>
       </c>
       <c r="O6" s="5" t="str">
-        <f t="shared" ca="1" si="5"/>
-        <v>19860125</v>
+        <f t="shared" ca="1" si="6"/>
+        <v>19960902</v>
+      </c>
+      <c r="P6" s="3" t="str">
+        <f t="shared" ca="1" si="7"/>
+        <v>5</v>
+      </c>
+      <c r="Q6" s="1" t="s">
+        <v>155</v>
       </c>
       <c r="R6" s="2"/>
       <c r="S6" s="2"/>
@@ -1303,18 +1490,18 @@
       </c>
       <c r="E7" s="3" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>대구 달서구</v>
+        <v>대구 중구 성내2동</v>
       </c>
       <c r="F7" s="2" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>01043518222</v>
+        <v>01052202205</v>
       </c>
       <c r="G7" s="4" t="s">
         <v>37</v>
       </c>
       <c r="H7" s="3" t="str">
         <f t="shared" ca="1" si="2"/>
-        <v>출퇴근</v>
+        <v>재택</v>
       </c>
       <c r="I7" s="2">
         <v>2024</v>
@@ -1323,9 +1510,9 @@
         <f t="shared" ca="1" si="3"/>
         <v>07</v>
       </c>
-      <c r="K7" s="2">
-        <f ca="1">RANDBETWEEN(0,10)</f>
-        <v>0</v>
+      <c r="K7" s="3">
+        <f t="shared" ca="1" si="4"/>
+        <v>29</v>
       </c>
       <c r="L7" s="1" t="s">
         <v>76</v>
@@ -1334,12 +1521,19 @@
         <v>105</v>
       </c>
       <c r="N7" t="str">
-        <f t="shared" ca="1" si="4"/>
-        <v>세무학과</v>
+        <f t="shared" ca="1" si="5"/>
+        <v>회계학과</v>
       </c>
       <c r="O7" s="5" t="str">
-        <f t="shared" ca="1" si="5"/>
-        <v>19890706</v>
+        <f t="shared" ca="1" si="6"/>
+        <v>19961030</v>
+      </c>
+      <c r="P7" s="3" t="str">
+        <f t="shared" ca="1" si="7"/>
+        <v>3</v>
+      </c>
+      <c r="Q7" s="1" t="s">
+        <v>156</v>
       </c>
       <c r="R7" s="2"/>
       <c r="S7" s="2"/>
@@ -1359,11 +1553,11 @@
       </c>
       <c r="E8" s="3" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>대구 남구</v>
+        <v>대구 중구 성내2동</v>
       </c>
       <c r="F8" s="2" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>01063535992</v>
+        <v>01021278105</v>
       </c>
       <c r="G8" s="4" t="s">
         <v>38</v>
@@ -1377,11 +1571,11 @@
       </c>
       <c r="J8" s="2" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>04</v>
-      </c>
-      <c r="K8" s="2">
-        <f t="shared" ca="1" si="6"/>
-        <v>3</v>
+        <v>06</v>
+      </c>
+      <c r="K8" s="3">
+        <f t="shared" ca="1" si="4"/>
+        <v>13</v>
       </c>
       <c r="L8" s="1" t="s">
         <v>77</v>
@@ -1390,12 +1584,19 @@
         <v>106</v>
       </c>
       <c r="N8" t="str">
-        <f t="shared" ca="1" si="4"/>
-        <v>경제학과</v>
+        <f t="shared" ca="1" si="5"/>
+        <v>세무학과</v>
       </c>
       <c r="O8" s="5" t="str">
-        <f t="shared" ca="1" si="5"/>
-        <v>20000318</v>
+        <f t="shared" ca="1" si="6"/>
+        <v>19890509</v>
+      </c>
+      <c r="P8" s="3" t="str">
+        <f t="shared" ca="1" si="7"/>
+        <v>21</v>
+      </c>
+      <c r="Q8" s="1" t="s">
+        <v>157</v>
       </c>
       <c r="R8" s="2"/>
       <c r="S8" s="2"/>
@@ -1415,29 +1616,29 @@
       </c>
       <c r="E9" s="3" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>대구 달성군</v>
+        <v>대구 중구 성내1동</v>
       </c>
       <c r="F9" s="2" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>01056618512</v>
+        <v>01085831227</v>
       </c>
       <c r="G9" s="4" t="s">
         <v>39</v>
       </c>
       <c r="H9" s="3" t="str">
         <f t="shared" ca="1" si="2"/>
-        <v>출퇴근</v>
+        <v>재택</v>
       </c>
       <c r="I9" s="2">
         <v>2024</v>
       </c>
       <c r="J9" s="2" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>09</v>
-      </c>
-      <c r="K9" s="2">
-        <f t="shared" ca="1" si="6"/>
-        <v>8</v>
+        <v>03</v>
+      </c>
+      <c r="K9" s="3">
+        <f t="shared" ca="1" si="4"/>
+        <v>72</v>
       </c>
       <c r="L9" s="1" t="s">
         <v>141</v>
@@ -1446,12 +1647,19 @@
         <v>107</v>
       </c>
       <c r="N9" t="str">
-        <f t="shared" ca="1" si="4"/>
-        <v>경제학과</v>
+        <f t="shared" ca="1" si="5"/>
+        <v>회계학과</v>
       </c>
       <c r="O9" s="5" t="str">
-        <f t="shared" ca="1" si="5"/>
-        <v>19930114</v>
+        <f t="shared" ca="1" si="6"/>
+        <v>19870717</v>
+      </c>
+      <c r="P9" s="3" t="str">
+        <f t="shared" ca="1" si="7"/>
+        <v>9</v>
+      </c>
+      <c r="Q9" s="1" t="s">
+        <v>158</v>
       </c>
       <c r="R9" s="2"/>
       <c r="S9" s="2"/>
@@ -1471,28 +1679,28 @@
       </c>
       <c r="E10" s="3" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>대구 달성군</v>
+        <v>대구 중구 성내1동</v>
       </c>
       <c r="F10" s="2" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>01047061150</v>
+        <v>01037923349</v>
       </c>
       <c r="G10" s="4" t="s">
         <v>40</v>
       </c>
       <c r="H10" s="3" t="str">
         <f t="shared" ca="1" si="2"/>
-        <v>출퇴근</v>
+        <v>모두가능</v>
       </c>
       <c r="I10" s="2">
         <v>2024</v>
       </c>
       <c r="J10" s="2" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>06</v>
-      </c>
-      <c r="K10" s="2">
-        <f t="shared" ca="1" si="6"/>
+        <v>05</v>
+      </c>
+      <c r="K10" s="3">
+        <f t="shared" ca="1" si="4"/>
         <v>1</v>
       </c>
       <c r="L10" s="1" t="s">
@@ -1502,12 +1710,19 @@
         <v>108</v>
       </c>
       <c r="N10" t="str">
-        <f t="shared" ca="1" si="4"/>
-        <v>세무학과</v>
+        <f t="shared" ca="1" si="5"/>
+        <v>회계학과</v>
       </c>
       <c r="O10" s="5" t="str">
-        <f t="shared" ca="1" si="5"/>
-        <v>19831224</v>
+        <f t="shared" ca="1" si="6"/>
+        <v>19940908</v>
+      </c>
+      <c r="P10" s="3" t="str">
+        <f t="shared" ca="1" si="7"/>
+        <v>9</v>
+      </c>
+      <c r="Q10" s="1" t="s">
+        <v>159</v>
       </c>
       <c r="R10" s="2"/>
       <c r="S10" s="2"/>
@@ -1527,29 +1742,29 @@
       </c>
       <c r="E11" s="3" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>대구 서구</v>
+        <v>대구 중구 남일동</v>
       </c>
       <c r="F11" s="2" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>01085862662</v>
+        <v>01099505221</v>
       </c>
       <c r="G11" s="4" t="s">
         <v>41</v>
       </c>
       <c r="H11" s="3" t="str">
         <f t="shared" ca="1" si="2"/>
-        <v>모두가능</v>
+        <v>출퇴근</v>
       </c>
       <c r="I11" s="2">
         <v>2024</v>
       </c>
       <c r="J11" s="2" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>09</v>
-      </c>
-      <c r="K11" s="2">
-        <f t="shared" ca="1" si="6"/>
-        <v>8</v>
+        <v>01</v>
+      </c>
+      <c r="K11" s="3">
+        <f t="shared" ca="1" si="4"/>
+        <v>81</v>
       </c>
       <c r="L11" s="1" t="s">
         <v>143</v>
@@ -1558,12 +1773,19 @@
         <v>109</v>
       </c>
       <c r="N11" t="str">
-        <f t="shared" ca="1" si="4"/>
-        <v>경영학과</v>
+        <f t="shared" ca="1" si="5"/>
+        <v>경제학과</v>
       </c>
       <c r="O11" s="5" t="str">
-        <f t="shared" ca="1" si="5"/>
-        <v>19980518</v>
+        <f t="shared" ca="1" si="6"/>
+        <v>19830622</v>
+      </c>
+      <c r="P11" s="3" t="str">
+        <f t="shared" ca="1" si="7"/>
+        <v>16</v>
+      </c>
+      <c r="Q11" s="1" t="s">
+        <v>160</v>
       </c>
       <c r="R11" s="2"/>
       <c r="S11" s="2"/>
@@ -1582,12 +1804,12 @@
         <v>9</v>
       </c>
       <c r="E12" s="3" t="str">
-        <f ca="1">"대구 " &amp; INDEX($L$1:$L$8, RANDBETWEEN(1, 8))</f>
-        <v>대구 남구</v>
+        <f t="shared" ca="1" si="0"/>
+        <v>대구 동구 신암1동</v>
       </c>
       <c r="F12" s="2" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>01047661135</v>
+        <v>01091748639</v>
       </c>
       <c r="G12" s="4" t="s">
         <v>42</v>
@@ -1601,11 +1823,11 @@
       </c>
       <c r="J12" s="2" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>01</v>
-      </c>
-      <c r="K12" s="2">
-        <f t="shared" ca="1" si="6"/>
-        <v>2</v>
+        <v>06</v>
+      </c>
+      <c r="K12" s="3">
+        <f t="shared" ca="1" si="4"/>
+        <v>53</v>
       </c>
       <c r="L12" s="1" t="s">
         <v>144</v>
@@ -1614,12 +1836,19 @@
         <v>110</v>
       </c>
       <c r="N12" t="str">
-        <f t="shared" ca="1" si="4"/>
-        <v>세무학과</v>
+        <f t="shared" ca="1" si="5"/>
+        <v>경영학과</v>
       </c>
       <c r="O12" s="5" t="str">
-        <f t="shared" ca="1" si="5"/>
-        <v>19980507</v>
+        <f t="shared" ca="1" si="6"/>
+        <v>19961104</v>
+      </c>
+      <c r="P12" s="3" t="str">
+        <f t="shared" ca="1" si="7"/>
+        <v>10</v>
+      </c>
+      <c r="Q12" s="1" t="s">
+        <v>161</v>
       </c>
       <c r="R12" s="2"/>
       <c r="S12" s="2"/>
@@ -1639,11 +1868,11 @@
       </c>
       <c r="E13" s="3" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>대구 서구</v>
+        <v>대구 중구 삼덕동</v>
       </c>
       <c r="F13" s="2" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>01008738002</v>
+        <v>01087722687</v>
       </c>
       <c r="G13" s="4" t="s">
         <v>43</v>
@@ -1657,11 +1886,11 @@
       </c>
       <c r="J13" s="2" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>02</v>
-      </c>
-      <c r="K13" s="2">
-        <f ca="1">RANDBETWEEN(0,10)</f>
-        <v>7</v>
+        <v>01</v>
+      </c>
+      <c r="K13" s="3">
+        <f t="shared" ca="1" si="4"/>
+        <v>84</v>
       </c>
       <c r="L13" s="1" t="s">
         <v>145</v>
@@ -1670,12 +1899,19 @@
         <v>111</v>
       </c>
       <c r="N13" t="str">
-        <f t="shared" ca="1" si="4"/>
-        <v>회계학과</v>
+        <f t="shared" ca="1" si="5"/>
+        <v>경영학과</v>
       </c>
       <c r="O13" s="5" t="str">
-        <f t="shared" ca="1" si="5"/>
-        <v>19880206</v>
+        <f t="shared" ca="1" si="6"/>
+        <v>19990420</v>
+      </c>
+      <c r="P13" s="3" t="str">
+        <f t="shared" ca="1" si="7"/>
+        <v>3</v>
+      </c>
+      <c r="Q13" s="1" t="s">
+        <v>162</v>
       </c>
       <c r="R13" s="2"/>
       <c r="S13" s="2"/>
@@ -1695,29 +1931,29 @@
       </c>
       <c r="E14" s="3" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>대구 북구</v>
+        <v>대구 동구 신암1동</v>
       </c>
       <c r="F14" s="2" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>01010246803</v>
+        <v>01091501648</v>
       </c>
       <c r="G14" s="4" t="s">
         <v>44</v>
       </c>
       <c r="H14" s="3" t="str">
         <f t="shared" ca="1" si="2"/>
-        <v>출퇴근</v>
+        <v>모두가능</v>
       </c>
       <c r="I14" s="2">
         <v>2024</v>
       </c>
       <c r="J14" s="2" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>03</v>
-      </c>
-      <c r="K14" s="2">
-        <f t="shared" ca="1" si="6"/>
-        <v>7</v>
+        <v>05</v>
+      </c>
+      <c r="K14" s="3">
+        <f t="shared" ca="1" si="4"/>
+        <v>74</v>
       </c>
       <c r="L14" s="1" t="s">
         <v>146</v>
@@ -1726,12 +1962,19 @@
         <v>112</v>
       </c>
       <c r="N14" t="str">
-        <f t="shared" ca="1" si="4"/>
+        <f t="shared" ca="1" si="5"/>
         <v>경영학과</v>
       </c>
       <c r="O14" s="5" t="str">
-        <f t="shared" ca="1" si="5"/>
-        <v>19850109</v>
+        <f t="shared" ca="1" si="6"/>
+        <v>19910811</v>
+      </c>
+      <c r="P14" s="3" t="str">
+        <f t="shared" ca="1" si="7"/>
+        <v>21</v>
+      </c>
+      <c r="Q14" s="1" t="s">
+        <v>163</v>
       </c>
       <c r="R14" s="2"/>
       <c r="S14" s="2"/>
@@ -1751,29 +1994,29 @@
       </c>
       <c r="E15" s="3" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>대구 서구</v>
+        <v>대구 중구 성내2동</v>
       </c>
       <c r="F15" s="2" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>01093104753</v>
+        <v>01071898218</v>
       </c>
       <c r="G15" s="4" t="s">
         <v>45</v>
       </c>
       <c r="H15" s="3" t="str">
         <f t="shared" ca="1" si="2"/>
-        <v>모두가능</v>
+        <v>출퇴근</v>
       </c>
       <c r="I15" s="2">
         <v>2024</v>
       </c>
       <c r="J15" s="2" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>09</v>
-      </c>
-      <c r="K15" s="2">
-        <f t="shared" ca="1" si="6"/>
-        <v>2</v>
+        <v>06</v>
+      </c>
+      <c r="K15" s="3">
+        <f t="shared" ca="1" si="4"/>
+        <v>64</v>
       </c>
       <c r="L15" s="1" t="s">
         <v>147</v>
@@ -1782,12 +2025,19 @@
         <v>113</v>
       </c>
       <c r="N15" t="str">
-        <f t="shared" ca="1" si="4"/>
-        <v>경영학과</v>
+        <f t="shared" ca="1" si="5"/>
+        <v>세무학과</v>
       </c>
       <c r="O15" s="5" t="str">
-        <f t="shared" ca="1" si="5"/>
-        <v>19891024</v>
+        <f t="shared" ca="1" si="6"/>
+        <v>19901031</v>
+      </c>
+      <c r="P15" s="3" t="str">
+        <f t="shared" ca="1" si="7"/>
+        <v>12</v>
+      </c>
+      <c r="Q15" s="1" t="s">
+        <v>164</v>
       </c>
       <c r="R15" s="2"/>
       <c r="S15" s="2"/>
@@ -1807,11 +2057,11 @@
       </c>
       <c r="E16" s="3" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>대구 수성구</v>
+        <v>대구 중구 동인동</v>
       </c>
       <c r="F16" s="2" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>01016815253</v>
+        <v>01033943858</v>
       </c>
       <c r="G16" s="4" t="s">
         <v>46</v>
@@ -1825,22 +2075,29 @@
       </c>
       <c r="J16" s="2" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>02</v>
-      </c>
-      <c r="K16" s="2">
-        <f t="shared" ca="1" si="6"/>
-        <v>8</v>
+        <v>09</v>
+      </c>
+      <c r="K16" s="3">
+        <f t="shared" ca="1" si="4"/>
+        <v>75</v>
       </c>
       <c r="M16" t="s">
         <v>114</v>
       </c>
       <c r="N16" t="str">
-        <f t="shared" ca="1" si="4"/>
-        <v>경영학과</v>
+        <f t="shared" ca="1" si="5"/>
+        <v>세무학과</v>
       </c>
       <c r="O16" s="5" t="str">
-        <f t="shared" ca="1" si="5"/>
-        <v>19870503</v>
+        <f t="shared" ca="1" si="6"/>
+        <v>19880119</v>
+      </c>
+      <c r="P16" s="3" t="str">
+        <f t="shared" ca="1" si="7"/>
+        <v>3</v>
+      </c>
+      <c r="Q16" s="1" t="s">
+        <v>165</v>
       </c>
       <c r="R16" s="2"/>
       <c r="S16" s="2"/>
@@ -1860,11 +2117,11 @@
       </c>
       <c r="E17" s="3" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>대구 남구</v>
+        <v>대구 중구 성내2동</v>
       </c>
       <c r="F17" s="2" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>01014552328</v>
+        <v>01000802009</v>
       </c>
       <c r="G17" s="4" t="s">
         <v>47</v>
@@ -1878,22 +2135,29 @@
       </c>
       <c r="J17" s="2" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>08</v>
-      </c>
-      <c r="K17" s="2">
-        <f t="shared" ca="1" si="6"/>
-        <v>5</v>
+        <v>05</v>
+      </c>
+      <c r="K17" s="3">
+        <f t="shared" ca="1" si="4"/>
+        <v>45</v>
       </c>
       <c r="M17" t="s">
         <v>115</v>
       </c>
       <c r="N17" t="str">
-        <f t="shared" ca="1" si="4"/>
-        <v>세무학과</v>
+        <f t="shared" ca="1" si="5"/>
+        <v>경영학과</v>
       </c>
       <c r="O17" s="5" t="str">
-        <f t="shared" ca="1" si="5"/>
-        <v>19870109</v>
+        <f t="shared" ca="1" si="6"/>
+        <v>19811110</v>
+      </c>
+      <c r="P17" s="3" t="str">
+        <f t="shared" ca="1" si="7"/>
+        <v>12</v>
+      </c>
+      <c r="Q17" s="1" t="s">
+        <v>166</v>
       </c>
       <c r="R17" s="2"/>
       <c r="S17" s="2"/>
@@ -1913,11 +2177,11 @@
       </c>
       <c r="E18" s="3" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>대구 중구</v>
+        <v>대구 중구 동인동</v>
       </c>
       <c r="F18" s="2" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>01001168596</v>
+        <v>01087994744</v>
       </c>
       <c r="G18" s="4" t="s">
         <v>48</v>
@@ -1931,22 +2195,29 @@
       </c>
       <c r="J18" s="2" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>05</v>
-      </c>
-      <c r="K18" s="2">
-        <f t="shared" ca="1" si="6"/>
-        <v>1</v>
+        <v>01</v>
+      </c>
+      <c r="K18" s="3">
+        <f t="shared" ca="1" si="4"/>
+        <v>24</v>
       </c>
       <c r="M18" t="s">
         <v>116</v>
       </c>
       <c r="N18" t="str">
-        <f t="shared" ca="1" si="4"/>
-        <v>회계학과</v>
+        <f t="shared" ca="1" si="5"/>
+        <v>경제학과</v>
       </c>
       <c r="O18" s="5" t="str">
-        <f t="shared" ca="1" si="5"/>
-        <v>19900825</v>
+        <f t="shared" ca="1" si="6"/>
+        <v>19860920</v>
+      </c>
+      <c r="P18" s="3" t="str">
+        <f t="shared" ca="1" si="7"/>
+        <v>17</v>
+      </c>
+      <c r="Q18" s="1" t="s">
+        <v>167</v>
       </c>
       <c r="R18" s="2"/>
       <c r="S18" s="2"/>
@@ -1966,11 +2237,11 @@
       </c>
       <c r="E19" s="3" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>대구 중구</v>
+        <v>대구 중구 성내1동</v>
       </c>
       <c r="F19" s="2" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>01047017588</v>
+        <v>01042433000</v>
       </c>
       <c r="G19" s="4" t="s">
         <v>49</v>
@@ -1984,22 +2255,29 @@
       </c>
       <c r="J19" s="2" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>01</v>
-      </c>
-      <c r="K19" s="2">
-        <f t="shared" ca="1" si="6"/>
-        <v>6</v>
+        <v>03</v>
+      </c>
+      <c r="K19" s="3">
+        <f t="shared" ca="1" si="4"/>
+        <v>33</v>
       </c>
       <c r="M19" t="s">
         <v>117</v>
       </c>
       <c r="N19" t="str">
-        <f t="shared" ca="1" si="4"/>
-        <v>회계학과</v>
+        <f t="shared" ca="1" si="5"/>
+        <v>경제학과</v>
       </c>
       <c r="O19" s="5" t="str">
-        <f t="shared" ca="1" si="5"/>
-        <v>19981202</v>
+        <f t="shared" ca="1" si="6"/>
+        <v>19910526</v>
+      </c>
+      <c r="P19" s="3" t="str">
+        <f t="shared" ca="1" si="7"/>
+        <v>24</v>
+      </c>
+      <c r="Q19" s="1" t="s">
+        <v>168</v>
       </c>
       <c r="R19" s="2"/>
       <c r="S19" s="2"/>
@@ -2019,40 +2297,47 @@
       </c>
       <c r="E20" s="3" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>대구 동구</v>
+        <v>대구 동구 신암3동</v>
       </c>
       <c r="F20" s="2" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>01048903683</v>
+        <v>01067435441</v>
       </c>
       <c r="G20" s="4" t="s">
         <v>50</v>
       </c>
       <c r="H20" s="3" t="str">
         <f t="shared" ca="1" si="2"/>
-        <v>모두가능</v>
+        <v>재택</v>
       </c>
       <c r="I20" s="2">
         <v>2024</v>
       </c>
       <c r="J20" s="2" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>04</v>
-      </c>
-      <c r="K20" s="2">
-        <f t="shared" ca="1" si="6"/>
-        <v>0</v>
+        <v>02</v>
+      </c>
+      <c r="K20" s="3">
+        <f t="shared" ca="1" si="4"/>
+        <v>24</v>
       </c>
       <c r="M20" t="s">
         <v>118</v>
       </c>
       <c r="N20" t="str">
-        <f t="shared" ca="1" si="4"/>
+        <f t="shared" ca="1" si="5"/>
         <v>경영학과</v>
       </c>
       <c r="O20" s="5" t="str">
-        <f t="shared" ca="1" si="5"/>
-        <v>19941029</v>
+        <f t="shared" ca="1" si="6"/>
+        <v>19880518</v>
+      </c>
+      <c r="P20" s="3" t="str">
+        <f t="shared" ca="1" si="7"/>
+        <v>21</v>
+      </c>
+      <c r="Q20" s="1" t="s">
+        <v>169</v>
       </c>
       <c r="R20" s="2"/>
       <c r="S20" s="2"/>
@@ -2072,40 +2357,47 @@
       </c>
       <c r="E21" s="3" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>대구 달서구</v>
+        <v>대구 동구 신암3동</v>
       </c>
       <c r="F21" s="2" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>01039010002</v>
+        <v>01099343296</v>
       </c>
       <c r="G21" s="4" t="s">
         <v>51</v>
       </c>
       <c r="H21" s="3" t="str">
         <f t="shared" ca="1" si="2"/>
-        <v>재택</v>
+        <v>모두가능</v>
       </c>
       <c r="I21" s="2">
         <v>2024</v>
       </c>
       <c r="J21" s="2" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>09</v>
-      </c>
-      <c r="K21" s="2">
-        <f t="shared" ca="1" si="6"/>
-        <v>1</v>
+        <v>05</v>
+      </c>
+      <c r="K21" s="3">
+        <f t="shared" ca="1" si="4"/>
+        <v>64</v>
       </c>
       <c r="M21" t="s">
         <v>119</v>
       </c>
       <c r="N21" t="str">
-        <f t="shared" ca="1" si="4"/>
+        <f t="shared" ca="1" si="5"/>
         <v>경제학과</v>
       </c>
       <c r="O21" s="5" t="str">
-        <f t="shared" ca="1" si="5"/>
-        <v>19901220</v>
+        <f t="shared" ca="1" si="6"/>
+        <v>19800612</v>
+      </c>
+      <c r="P21" s="3" t="str">
+        <f t="shared" ca="1" si="7"/>
+        <v>21</v>
+      </c>
+      <c r="Q21" s="1" t="s">
+        <v>170</v>
       </c>
       <c r="R21" s="2"/>
       <c r="S21" s="2"/>
@@ -2125,40 +2417,47 @@
       </c>
       <c r="E22" s="3" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>대구 달서구</v>
+        <v>대구 동구 신암1동</v>
       </c>
       <c r="F22" s="2" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>01084879647</v>
+        <v>01095399028</v>
       </c>
       <c r="G22" s="4" t="s">
         <v>52</v>
       </c>
       <c r="H22" s="3" t="str">
         <f t="shared" ca="1" si="2"/>
-        <v>재택</v>
+        <v>출퇴근</v>
       </c>
       <c r="I22" s="2">
         <v>2024</v>
       </c>
       <c r="J22" s="2" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>04</v>
-      </c>
-      <c r="K22" s="2">
-        <f t="shared" ca="1" si="6"/>
-        <v>10</v>
+        <v>08</v>
+      </c>
+      <c r="K22" s="3">
+        <f t="shared" ca="1" si="4"/>
+        <v>12</v>
       </c>
       <c r="M22" t="s">
         <v>120</v>
       </c>
       <c r="N22" t="str">
-        <f t="shared" ca="1" si="4"/>
-        <v>경영학과</v>
+        <f t="shared" ca="1" si="5"/>
+        <v>세무학과</v>
       </c>
       <c r="O22" s="5" t="str">
-        <f t="shared" ca="1" si="5"/>
-        <v>19871029</v>
+        <f t="shared" ca="1" si="6"/>
+        <v>19950617</v>
+      </c>
+      <c r="P22" s="3" t="str">
+        <f t="shared" ca="1" si="7"/>
+        <v>6</v>
+      </c>
+      <c r="Q22" s="1" t="s">
+        <v>171</v>
       </c>
       <c r="R22" s="2"/>
       <c r="S22" s="2"/>
@@ -2178,40 +2477,47 @@
       </c>
       <c r="E23" s="3" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>대구 동구</v>
+        <v>대구 동구 신암1동</v>
       </c>
       <c r="F23" s="2" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>01011876431</v>
+        <v>01000278949</v>
       </c>
       <c r="G23" s="4" t="s">
         <v>53</v>
       </c>
       <c r="H23" s="3" t="str">
         <f t="shared" ca="1" si="2"/>
-        <v>재택</v>
+        <v>출퇴근</v>
       </c>
       <c r="I23" s="2">
         <v>2024</v>
       </c>
       <c r="J23" s="2" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>01</v>
-      </c>
-      <c r="K23" s="2">
-        <f t="shared" ca="1" si="6"/>
-        <v>7</v>
+        <v>04</v>
+      </c>
+      <c r="K23" s="3">
+        <f t="shared" ca="1" si="4"/>
+        <v>6</v>
       </c>
       <c r="M23" t="s">
         <v>121</v>
       </c>
       <c r="N23" t="str">
-        <f t="shared" ca="1" si="4"/>
-        <v>경영학과</v>
+        <f t="shared" ca="1" si="5"/>
+        <v>세무학과</v>
       </c>
       <c r="O23" s="5" t="str">
-        <f t="shared" ca="1" si="5"/>
-        <v>19930101</v>
+        <f t="shared" ca="1" si="6"/>
+        <v>19891002</v>
+      </c>
+      <c r="P23" s="3" t="str">
+        <f t="shared" ca="1" si="7"/>
+        <v>2</v>
+      </c>
+      <c r="Q23" s="1" t="s">
+        <v>172</v>
       </c>
       <c r="R23" s="2"/>
       <c r="S23" s="2"/>
@@ -2231,40 +2537,47 @@
       </c>
       <c r="E24" s="3" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>대구 서구</v>
+        <v>대구 동구 신암3동</v>
       </c>
       <c r="F24" s="2" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>01041826549</v>
+        <v>01047234916</v>
       </c>
       <c r="G24" s="4" t="s">
         <v>54</v>
       </c>
       <c r="H24" s="3" t="str">
         <f t="shared" ca="1" si="2"/>
-        <v>출퇴근</v>
+        <v>모두가능</v>
       </c>
       <c r="I24" s="2">
         <v>2024</v>
       </c>
       <c r="J24" s="2" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>03</v>
-      </c>
-      <c r="K24" s="2">
-        <f t="shared" ca="1" si="6"/>
-        <v>5</v>
+        <v>05</v>
+      </c>
+      <c r="K24" s="3">
+        <f t="shared" ca="1" si="4"/>
+        <v>55</v>
       </c>
       <c r="M24" t="s">
         <v>122</v>
       </c>
       <c r="N24" t="str">
-        <f t="shared" ca="1" si="4"/>
-        <v>세무학과</v>
+        <f t="shared" ca="1" si="5"/>
+        <v>회계학과</v>
       </c>
       <c r="O24" s="5" t="str">
-        <f t="shared" ca="1" si="5"/>
-        <v>19891020</v>
+        <f t="shared" ca="1" si="6"/>
+        <v>19981215</v>
+      </c>
+      <c r="P24" s="3" t="str">
+        <f t="shared" ca="1" si="7"/>
+        <v>28</v>
+      </c>
+      <c r="Q24" s="1" t="s">
+        <v>173</v>
       </c>
       <c r="R24" s="2"/>
       <c r="S24" s="2"/>
@@ -2284,40 +2597,47 @@
       </c>
       <c r="E25" s="3" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>대구 동구</v>
+        <v>대구 동구 신암3동</v>
       </c>
       <c r="F25" s="2" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>01024414549</v>
+        <v>01074316616</v>
       </c>
       <c r="G25" s="4" t="s">
         <v>55</v>
       </c>
       <c r="H25" s="3" t="str">
         <f t="shared" ca="1" si="2"/>
-        <v>재택</v>
+        <v>출퇴근</v>
       </c>
       <c r="I25" s="2">
         <v>2024</v>
       </c>
       <c r="J25" s="2" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>06</v>
-      </c>
-      <c r="K25" s="2">
-        <f t="shared" ca="1" si="6"/>
-        <v>0</v>
+        <v>04</v>
+      </c>
+      <c r="K25" s="3">
+        <f t="shared" ca="1" si="4"/>
+        <v>28</v>
       </c>
       <c r="M25" t="s">
         <v>123</v>
       </c>
       <c r="N25" t="str">
-        <f t="shared" ca="1" si="4"/>
-        <v>경제학과</v>
+        <f t="shared" ca="1" si="5"/>
+        <v>회계학과</v>
       </c>
       <c r="O25" s="5" t="str">
-        <f t="shared" ca="1" si="5"/>
-        <v>19840815</v>
+        <f t="shared" ca="1" si="6"/>
+        <v>19830828</v>
+      </c>
+      <c r="P25" s="3" t="str">
+        <f t="shared" ca="1" si="7"/>
+        <v>5</v>
+      </c>
+      <c r="Q25" s="1" t="s">
+        <v>174</v>
       </c>
       <c r="R25" s="2"/>
       <c r="S25" s="2"/>
@@ -2337,40 +2657,47 @@
       </c>
       <c r="E26" s="3" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>대구 수성구</v>
+        <v>대구 동구 신암3동</v>
       </c>
       <c r="F26" s="2" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>01018845071</v>
+        <v>01042413160</v>
       </c>
       <c r="G26" s="4" t="s">
         <v>56</v>
       </c>
       <c r="H26" s="3" t="str">
         <f t="shared" ca="1" si="2"/>
-        <v>재택</v>
+        <v>모두가능</v>
       </c>
       <c r="I26" s="2">
         <v>2024</v>
       </c>
       <c r="J26" s="2" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>06</v>
-      </c>
-      <c r="K26" s="2">
-        <f t="shared" ca="1" si="6"/>
-        <v>2</v>
+        <v>08</v>
+      </c>
+      <c r="K26" s="3">
+        <f t="shared" ca="1" si="4"/>
+        <v>77</v>
       </c>
       <c r="M26" t="s">
         <v>124</v>
       </c>
       <c r="N26" t="str">
-        <f t="shared" ca="1" si="4"/>
+        <f t="shared" ca="1" si="5"/>
         <v>회계학과</v>
       </c>
       <c r="O26" s="5" t="str">
-        <f t="shared" ca="1" si="5"/>
-        <v>19920322</v>
+        <f t="shared" ca="1" si="6"/>
+        <v>19921201</v>
+      </c>
+      <c r="P26" s="3" t="str">
+        <f t="shared" ca="1" si="7"/>
+        <v>20</v>
+      </c>
+      <c r="Q26" s="1" t="s">
+        <v>175</v>
       </c>
       <c r="R26" s="2"/>
       <c r="S26" s="2"/>
@@ -2390,18 +2717,18 @@
       </c>
       <c r="E27" s="3" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>대구 달서구</v>
+        <v>대구 중구 남일동</v>
       </c>
       <c r="F27" s="2" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>01006952765</v>
+        <v>01054582998</v>
       </c>
       <c r="G27" s="4" t="s">
         <v>57</v>
       </c>
       <c r="H27" s="3" t="str">
         <f t="shared" ca="1" si="2"/>
-        <v>출퇴근</v>
+        <v>재택</v>
       </c>
       <c r="I27" s="2">
         <v>2024</v>
@@ -2410,20 +2737,27 @@
         <f t="shared" ca="1" si="3"/>
         <v>04</v>
       </c>
-      <c r="K27" s="2">
-        <f t="shared" ca="1" si="6"/>
-        <v>7</v>
+      <c r="K27" s="3">
+        <f t="shared" ca="1" si="4"/>
+        <v>9</v>
       </c>
       <c r="M27" t="s">
         <v>125</v>
       </c>
       <c r="N27" t="str">
-        <f t="shared" ca="1" si="4"/>
-        <v>경제학과</v>
+        <f t="shared" ca="1" si="5"/>
+        <v>세무학과</v>
       </c>
       <c r="O27" s="5" t="str">
-        <f t="shared" ca="1" si="5"/>
-        <v>19910412</v>
+        <f t="shared" ca="1" si="6"/>
+        <v>19970924</v>
+      </c>
+      <c r="P27" s="3" t="str">
+        <f t="shared" ca="1" si="7"/>
+        <v>14</v>
+      </c>
+      <c r="Q27" s="1" t="s">
+        <v>176</v>
       </c>
       <c r="R27" s="2"/>
       <c r="S27" s="2"/>
@@ -2443,40 +2777,47 @@
       </c>
       <c r="E28" s="3" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>대구 동구</v>
+        <v>대구 동구 신암3동</v>
       </c>
       <c r="F28" s="2" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>01075281684</v>
+        <v>01048588188</v>
       </c>
       <c r="G28" s="4" t="s">
         <v>58</v>
       </c>
       <c r="H28" s="3" t="str">
         <f t="shared" ca="1" si="2"/>
-        <v>모두가능</v>
+        <v>재택</v>
       </c>
       <c r="I28" s="2">
         <v>2024</v>
       </c>
       <c r="J28" s="2" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>07</v>
-      </c>
-      <c r="K28" s="2">
-        <f t="shared" ca="1" si="6"/>
-        <v>1</v>
+        <v>09</v>
+      </c>
+      <c r="K28" s="3">
+        <f t="shared" ca="1" si="4"/>
+        <v>48</v>
       </c>
       <c r="M28" t="s">
         <v>126</v>
       </c>
       <c r="N28" t="str">
-        <f t="shared" ca="1" si="4"/>
-        <v>경영학과</v>
+        <f t="shared" ca="1" si="5"/>
+        <v>세무학과</v>
       </c>
       <c r="O28" s="5" t="str">
-        <f t="shared" ca="1" si="5"/>
-        <v>19971215</v>
+        <f t="shared" ca="1" si="6"/>
+        <v>19851003</v>
+      </c>
+      <c r="P28" s="3" t="str">
+        <f t="shared" ca="1" si="7"/>
+        <v>11</v>
+      </c>
+      <c r="Q28" s="1" t="s">
+        <v>177</v>
       </c>
       <c r="R28" s="2"/>
       <c r="S28" s="2"/>
@@ -2496,40 +2837,47 @@
       </c>
       <c r="E29" s="3" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>대구 중구</v>
+        <v>대구 동구 신암3동</v>
       </c>
       <c r="F29" s="2" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>01021412743</v>
+        <v>01085172241</v>
       </c>
       <c r="G29" s="4" t="s">
         <v>59</v>
       </c>
       <c r="H29" s="3" t="str">
         <f t="shared" ca="1" si="2"/>
-        <v>모두가능</v>
+        <v>재택</v>
       </c>
       <c r="I29" s="2">
         <v>2024</v>
       </c>
       <c r="J29" s="2" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>01</v>
-      </c>
-      <c r="K29" s="2">
-        <f t="shared" ca="1" si="6"/>
-        <v>5</v>
+        <v>02</v>
+      </c>
+      <c r="K29" s="3">
+        <f t="shared" ca="1" si="4"/>
+        <v>37</v>
       </c>
       <c r="M29" t="s">
         <v>127</v>
       </c>
       <c r="N29" t="str">
-        <f t="shared" ca="1" si="4"/>
+        <f t="shared" ca="1" si="5"/>
         <v>경제학과</v>
       </c>
       <c r="O29" s="5" t="str">
-        <f t="shared" ca="1" si="5"/>
-        <v>19960817</v>
+        <f t="shared" ca="1" si="6"/>
+        <v>19970322</v>
+      </c>
+      <c r="P29" s="3" t="str">
+        <f t="shared" ca="1" si="7"/>
+        <v>17</v>
+      </c>
+      <c r="Q29" s="1" t="s">
+        <v>178</v>
       </c>
       <c r="R29" s="2"/>
       <c r="S29" s="2"/>
@@ -2549,11 +2897,11 @@
       </c>
       <c r="E30" s="3" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>대구 수성구</v>
+        <v>대구 동구 신암2동</v>
       </c>
       <c r="F30" s="2" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>01081606977</v>
+        <v>01057446434</v>
       </c>
       <c r="G30" s="4" t="s">
         <v>60</v>
@@ -2567,22 +2915,29 @@
       </c>
       <c r="J30" s="2" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>03</v>
-      </c>
-      <c r="K30" s="2">
-        <f t="shared" ca="1" si="6"/>
-        <v>8</v>
+        <v>01</v>
+      </c>
+      <c r="K30" s="3">
+        <f t="shared" ca="1" si="4"/>
+        <v>59</v>
       </c>
       <c r="M30" t="s">
         <v>128</v>
       </c>
       <c r="N30" t="str">
-        <f t="shared" ca="1" si="4"/>
-        <v>세무학과</v>
+        <f t="shared" ca="1" si="5"/>
+        <v>경제학과</v>
       </c>
       <c r="O30" s="5" t="str">
-        <f t="shared" ca="1" si="5"/>
-        <v>19810526</v>
+        <f t="shared" ca="1" si="6"/>
+        <v>19821125</v>
+      </c>
+      <c r="P30" s="3" t="str">
+        <f t="shared" ca="1" si="7"/>
+        <v>20</v>
+      </c>
+      <c r="Q30" s="1" t="s">
+        <v>179</v>
       </c>
       <c r="R30" s="2"/>
       <c r="S30" s="2"/>
@@ -2602,11 +2957,11 @@
       </c>
       <c r="E31" s="3" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>대구 남구</v>
+        <v>대구 중구 성내2동</v>
       </c>
       <c r="F31" s="3" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>01085441322</v>
+        <v>01037806338</v>
       </c>
       <c r="G31" s="4" t="s">
         <v>78</v>
@@ -2620,22 +2975,29 @@
       </c>
       <c r="J31" s="3" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>03</v>
+        <v>02</v>
       </c>
       <c r="K31" s="3">
-        <f t="shared" ca="1" si="6"/>
-        <v>7</v>
+        <f t="shared" ca="1" si="4"/>
+        <v>15</v>
       </c>
       <c r="M31" t="s">
         <v>129</v>
       </c>
       <c r="N31" t="str">
-        <f t="shared" ca="1" si="4"/>
-        <v>세무학과</v>
+        <f t="shared" ca="1" si="5"/>
+        <v>경영학과</v>
       </c>
       <c r="O31" s="5" t="str">
-        <f t="shared" ca="1" si="5"/>
-        <v>19801123</v>
+        <f t="shared" ca="1" si="6"/>
+        <v>19961217</v>
+      </c>
+      <c r="P31" s="3" t="str">
+        <f t="shared" ca="1" si="7"/>
+        <v>28</v>
+      </c>
+      <c r="Q31" s="1" t="s">
+        <v>180</v>
       </c>
     </row>
     <row r="32" spans="1:19" x14ac:dyDescent="0.3">
@@ -2653,11 +3015,11 @@
       </c>
       <c r="E32" s="3" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>대구 남구</v>
+        <v>대구 중구 삼덕동</v>
       </c>
       <c r="F32" s="3" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>01073530098</v>
+        <v>01028462409</v>
       </c>
       <c r="G32" s="4" t="s">
         <v>79</v>
@@ -2671,25 +3033,32 @@
       </c>
       <c r="J32" s="3" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>09</v>
+        <v>08</v>
       </c>
       <c r="K32" s="3">
-        <f t="shared" ca="1" si="6"/>
-        <v>4</v>
+        <f t="shared" ca="1" si="4"/>
+        <v>37</v>
       </c>
       <c r="M32" t="s">
         <v>130</v>
       </c>
       <c r="N32" t="str">
-        <f t="shared" ca="1" si="4"/>
-        <v>경영학과</v>
+        <f t="shared" ca="1" si="5"/>
+        <v>경제학과</v>
       </c>
       <c r="O32" s="5" t="str">
-        <f t="shared" ca="1" si="5"/>
-        <v>19991015</v>
-      </c>
-    </row>
-    <row r="33" spans="1:15" x14ac:dyDescent="0.3">
+        <f t="shared" ca="1" si="6"/>
+        <v>19940703</v>
+      </c>
+      <c r="P32" s="3" t="str">
+        <f t="shared" ca="1" si="7"/>
+        <v>31</v>
+      </c>
+      <c r="Q32" s="1" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="33" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A33" s="3">
         <v>352</v>
       </c>
@@ -2704,43 +3073,50 @@
       </c>
       <c r="E33" s="3" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>대구 수성구</v>
+        <v>대구 동구 신암3동</v>
       </c>
       <c r="F33" s="3" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>01009195820</v>
+        <v>01068142846</v>
       </c>
       <c r="G33" s="4" t="s">
         <v>80</v>
       </c>
       <c r="H33" s="3" t="str">
         <f t="shared" ca="1" si="2"/>
-        <v>재택</v>
+        <v>모두가능</v>
       </c>
       <c r="I33" s="3">
         <v>2024</v>
       </c>
       <c r="J33" s="3" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>02</v>
+        <v>03</v>
       </c>
       <c r="K33" s="3">
-        <f t="shared" ca="1" si="6"/>
-        <v>3</v>
+        <f t="shared" ca="1" si="4"/>
+        <v>30</v>
       </c>
       <c r="M33" t="s">
         <v>131</v>
       </c>
       <c r="N33" t="str">
-        <f t="shared" ca="1" si="4"/>
-        <v>회계학과</v>
+        <f t="shared" ca="1" si="5"/>
+        <v>경영학과</v>
       </c>
       <c r="O33" s="5" t="str">
-        <f t="shared" ca="1" si="5"/>
-        <v>20000717</v>
-      </c>
-    </row>
-    <row r="34" spans="1:15" x14ac:dyDescent="0.3">
+        <f t="shared" ca="1" si="6"/>
+        <v>19900612</v>
+      </c>
+      <c r="P33" s="3" t="str">
+        <f t="shared" ca="1" si="7"/>
+        <v>13</v>
+      </c>
+      <c r="Q33" s="1" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="34" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A34" s="3">
         <v>363</v>
       </c>
@@ -2755,43 +3131,50 @@
       </c>
       <c r="E34" s="3" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>대구 북구</v>
+        <v>대구 중구 동인동</v>
       </c>
       <c r="F34" s="3" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>01035307987</v>
+        <v>01027235092</v>
       </c>
       <c r="G34" s="4" t="s">
         <v>81</v>
       </c>
       <c r="H34" s="3" t="str">
         <f t="shared" ca="1" si="2"/>
-        <v>모두가능</v>
+        <v>재택</v>
       </c>
       <c r="I34" s="3">
         <v>2024</v>
       </c>
       <c r="J34" s="3" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>09</v>
+        <v>02</v>
       </c>
       <c r="K34" s="3">
-        <f t="shared" ca="1" si="6"/>
-        <v>9</v>
+        <f t="shared" ca="1" si="4"/>
+        <v>48</v>
       </c>
       <c r="M34" t="s">
         <v>132</v>
       </c>
       <c r="N34" t="str">
-        <f t="shared" ca="1" si="4"/>
-        <v>세무학과</v>
+        <f t="shared" ca="1" si="5"/>
+        <v>경제학과</v>
       </c>
       <c r="O34" s="5" t="str">
-        <f t="shared" ca="1" si="5"/>
-        <v>19830215</v>
-      </c>
-    </row>
-    <row r="35" spans="1:15" x14ac:dyDescent="0.3">
+        <f t="shared" ca="1" si="6"/>
+        <v>19810115</v>
+      </c>
+      <c r="P34" s="3" t="str">
+        <f t="shared" ca="1" si="7"/>
+        <v>1</v>
+      </c>
+      <c r="Q34" s="1" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="35" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A35" s="3">
         <v>374</v>
       </c>
@@ -2806,43 +3189,50 @@
       </c>
       <c r="E35" s="3" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>대구 수성구</v>
+        <v>대구 중구 삼덕동</v>
       </c>
       <c r="F35" s="3" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>01006663114</v>
+        <v>01069519008</v>
       </c>
       <c r="G35" s="4" t="s">
         <v>82</v>
       </c>
       <c r="H35" s="3" t="str">
         <f t="shared" ca="1" si="2"/>
-        <v>모두가능</v>
+        <v>재택</v>
       </c>
       <c r="I35" s="3">
         <v>2024</v>
       </c>
       <c r="J35" s="3" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>09</v>
+        <v>03</v>
       </c>
       <c r="K35" s="3">
-        <f t="shared" ca="1" si="6"/>
-        <v>7</v>
+        <f t="shared" ca="1" si="4"/>
+        <v>20</v>
       </c>
       <c r="M35" t="s">
         <v>133</v>
       </c>
       <c r="N35" t="str">
-        <f t="shared" ca="1" si="4"/>
-        <v>경제학과</v>
+        <f t="shared" ca="1" si="5"/>
+        <v>경영학과</v>
       </c>
       <c r="O35" s="5" t="str">
-        <f t="shared" ca="1" si="5"/>
-        <v>19980621</v>
-      </c>
-    </row>
-    <row r="36" spans="1:15" x14ac:dyDescent="0.3">
+        <f t="shared" ca="1" si="6"/>
+        <v>20001202</v>
+      </c>
+      <c r="P35" s="3" t="str">
+        <f t="shared" ca="1" si="7"/>
+        <v>31</v>
+      </c>
+      <c r="Q35" s="1" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="36" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A36" s="3">
         <v>385</v>
       </c>
@@ -2857,11 +3247,11 @@
       </c>
       <c r="E36" s="3" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>대구 북구</v>
+        <v>대구 중구 삼덕동</v>
       </c>
       <c r="F36" s="3" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>01096738345</v>
+        <v>01096215587</v>
       </c>
       <c r="G36" s="4" t="s">
         <v>83</v>
@@ -2875,25 +3265,29 @@
       </c>
       <c r="J36" s="3" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>01</v>
+        <v>03</v>
       </c>
       <c r="K36" s="3">
-        <f t="shared" ca="1" si="6"/>
-        <v>6</v>
+        <f t="shared" ca="1" si="4"/>
+        <v>3</v>
       </c>
       <c r="M36" t="s">
         <v>134</v>
       </c>
       <c r="N36" t="str">
-        <f t="shared" ca="1" si="4"/>
+        <f t="shared" ca="1" si="5"/>
         <v>경제학과</v>
       </c>
       <c r="O36" s="5" t="str">
-        <f t="shared" ca="1" si="5"/>
-        <v>19950624</v>
-      </c>
-    </row>
-    <row r="37" spans="1:15" x14ac:dyDescent="0.3">
+        <f t="shared" ca="1" si="6"/>
+        <v>19910716</v>
+      </c>
+      <c r="P36" s="3" t="str">
+        <f t="shared" ca="1" si="7"/>
+        <v>12</v>
+      </c>
+    </row>
+    <row r="37" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A37" s="3">
         <v>396</v>
       </c>
@@ -2908,43 +3302,47 @@
       </c>
       <c r="E37" s="3" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>대구 북구</v>
+        <v>대구 동구 신암1동</v>
       </c>
       <c r="F37" s="3" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>01067632124</v>
+        <v>01047496352</v>
       </c>
       <c r="G37" s="4" t="s">
         <v>84</v>
       </c>
       <c r="H37" s="3" t="str">
         <f t="shared" ca="1" si="2"/>
-        <v>모두가능</v>
+        <v>재택</v>
       </c>
       <c r="I37" s="3">
         <v>2024</v>
       </c>
       <c r="J37" s="3" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>09</v>
+        <v>01</v>
       </c>
       <c r="K37" s="3">
-        <f t="shared" ca="1" si="6"/>
-        <v>0</v>
+        <f t="shared" ca="1" si="4"/>
+        <v>78</v>
       </c>
       <c r="M37" t="s">
         <v>135</v>
       </c>
       <c r="N37" t="str">
-        <f t="shared" ca="1" si="4"/>
-        <v>회계학과</v>
+        <f t="shared" ca="1" si="5"/>
+        <v>경영학과</v>
       </c>
       <c r="O37" s="5" t="str">
-        <f t="shared" ca="1" si="5"/>
-        <v>19840911</v>
-      </c>
-    </row>
-    <row r="38" spans="1:15" x14ac:dyDescent="0.3">
+        <f t="shared" ca="1" si="6"/>
+        <v>19880202</v>
+      </c>
+      <c r="P37" s="3" t="str">
+        <f t="shared" ca="1" si="7"/>
+        <v>18</v>
+      </c>
+    </row>
+    <row r="38" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A38" s="3">
         <v>407</v>
       </c>
@@ -2959,11 +3357,11 @@
       </c>
       <c r="E38" s="3" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>대구 수성구</v>
+        <v>대구 중구 성내1동</v>
       </c>
       <c r="F38" s="3" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>01037755377</v>
+        <v>01046605039</v>
       </c>
       <c r="G38" s="4" t="s">
         <v>85</v>
@@ -2977,25 +3375,29 @@
       </c>
       <c r="J38" s="3" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>01</v>
+        <v>04</v>
       </c>
       <c r="K38" s="3">
-        <f t="shared" ca="1" si="6"/>
-        <v>4</v>
+        <f t="shared" ca="1" si="4"/>
+        <v>21</v>
       </c>
       <c r="M38" t="s">
         <v>136</v>
       </c>
       <c r="N38" t="str">
-        <f t="shared" ca="1" si="4"/>
-        <v>회계학과</v>
+        <f t="shared" ca="1" si="5"/>
+        <v>세무학과</v>
       </c>
       <c r="O38" s="5" t="str">
-        <f t="shared" ca="1" si="5"/>
-        <v>19990118</v>
-      </c>
-    </row>
-    <row r="39" spans="1:15" x14ac:dyDescent="0.3">
+        <f t="shared" ca="1" si="6"/>
+        <v>19880927</v>
+      </c>
+      <c r="P38" s="3" t="str">
+        <f t="shared" ca="1" si="7"/>
+        <v>22</v>
+      </c>
+    </row>
+    <row r="39" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A39" s="3">
         <v>418</v>
       </c>
@@ -3010,43 +3412,47 @@
       </c>
       <c r="E39" s="3" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>대구 수성구</v>
+        <v>대구 동구 신암3동</v>
       </c>
       <c r="F39" s="3" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>01018232462</v>
+        <v>01094440743</v>
       </c>
       <c r="G39" s="4" t="s">
         <v>86</v>
       </c>
       <c r="H39" s="3" t="str">
         <f t="shared" ca="1" si="2"/>
-        <v>출퇴근</v>
+        <v>재택</v>
       </c>
       <c r="I39" s="3">
         <v>2024</v>
       </c>
       <c r="J39" s="3" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>04</v>
+        <v>03</v>
       </c>
       <c r="K39" s="3">
-        <f t="shared" ca="1" si="6"/>
-        <v>6</v>
+        <f t="shared" ca="1" si="4"/>
+        <v>70</v>
       </c>
       <c r="M39" t="s">
         <v>137</v>
       </c>
       <c r="N39" t="str">
-        <f t="shared" ca="1" si="4"/>
+        <f t="shared" ca="1" si="5"/>
         <v>세무학과</v>
       </c>
       <c r="O39" s="5" t="str">
-        <f t="shared" ca="1" si="5"/>
-        <v>19970610</v>
-      </c>
-    </row>
-    <row r="40" spans="1:15" x14ac:dyDescent="0.3">
+        <f t="shared" ca="1" si="6"/>
+        <v>19870627</v>
+      </c>
+      <c r="P39" s="3" t="str">
+        <f t="shared" ca="1" si="7"/>
+        <v>19</v>
+      </c>
+    </row>
+    <row r="40" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A40" s="3">
         <v>429</v>
       </c>
@@ -3061,43 +3467,47 @@
       </c>
       <c r="E40" s="3" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>대구 중구</v>
+        <v>대구 중구 삼덕동</v>
       </c>
       <c r="F40" s="3" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>01044438193</v>
+        <v>01068212758</v>
       </c>
       <c r="G40" s="4" t="s">
         <v>87</v>
       </c>
       <c r="H40" s="3" t="str">
         <f t="shared" ca="1" si="2"/>
-        <v>재택</v>
+        <v>모두가능</v>
       </c>
       <c r="I40" s="3">
         <v>2024</v>
       </c>
       <c r="J40" s="3" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>04</v>
+        <v>07</v>
       </c>
       <c r="K40" s="3">
-        <f t="shared" ca="1" si="6"/>
-        <v>8</v>
+        <f t="shared" ca="1" si="4"/>
+        <v>26</v>
       </c>
       <c r="M40" t="s">
         <v>138</v>
       </c>
       <c r="N40" t="str">
-        <f t="shared" ca="1" si="4"/>
+        <f t="shared" ca="1" si="5"/>
         <v>경제학과</v>
       </c>
       <c r="O40" s="5" t="str">
-        <f t="shared" ca="1" si="5"/>
-        <v>19840127</v>
-      </c>
-    </row>
-    <row r="41" spans="1:15" x14ac:dyDescent="0.3">
+        <f t="shared" ca="1" si="6"/>
+        <v>19990924</v>
+      </c>
+      <c r="P40" s="3" t="str">
+        <f t="shared" ca="1" si="7"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="41" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A41" s="3">
         <v>440</v>
       </c>
@@ -3112,43 +3522,47 @@
       </c>
       <c r="E41" s="3" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>대구 남구</v>
+        <v>대구 동구 신암3동</v>
       </c>
       <c r="F41" s="3" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>01025531788</v>
+        <v>01038547204</v>
       </c>
       <c r="G41" s="4" t="s">
         <v>88</v>
       </c>
       <c r="H41" s="3" t="str">
         <f t="shared" ca="1" si="2"/>
-        <v>재택</v>
+        <v>모두가능</v>
       </c>
       <c r="I41" s="3">
         <v>2024</v>
       </c>
       <c r="J41" s="3" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>07</v>
+        <v>01</v>
       </c>
       <c r="K41" s="3">
-        <f t="shared" ca="1" si="6"/>
-        <v>9</v>
+        <f t="shared" ca="1" si="4"/>
+        <v>82</v>
       </c>
       <c r="M41" t="s">
         <v>139</v>
       </c>
       <c r="N41" t="str">
-        <f t="shared" ca="1" si="4"/>
-        <v>회계학과</v>
+        <f t="shared" ca="1" si="5"/>
+        <v>세무학과</v>
       </c>
       <c r="O41" s="5" t="str">
-        <f t="shared" ca="1" si="5"/>
-        <v>19980412</v>
-      </c>
-    </row>
-    <row r="42" spans="1:15" x14ac:dyDescent="0.3">
+        <f t="shared" ca="1" si="6"/>
+        <v>19810313</v>
+      </c>
+      <c r="P41" s="3" t="str">
+        <f t="shared" ca="1" si="7"/>
+        <v>16</v>
+      </c>
+    </row>
+    <row r="42" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A42" s="3">
         <v>451</v>
       </c>
@@ -3163,11 +3577,11 @@
       </c>
       <c r="E42" s="3" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>대구 동구</v>
+        <v>대구 중구 남일동</v>
       </c>
       <c r="F42" s="3" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>01006428157</v>
+        <v>01025762046</v>
       </c>
       <c r="G42" s="4" t="s">
         <v>89</v>
@@ -3181,25 +3595,29 @@
       </c>
       <c r="J42" s="3" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>08</v>
+        <v>05</v>
       </c>
       <c r="K42" s="3">
-        <f t="shared" ca="1" si="6"/>
-        <v>0</v>
+        <f t="shared" ca="1" si="4"/>
+        <v>13</v>
       </c>
       <c r="M42" t="s">
         <v>110</v>
       </c>
       <c r="N42" t="str">
-        <f t="shared" ca="1" si="4"/>
+        <f t="shared" ca="1" si="5"/>
         <v>회계학과</v>
       </c>
       <c r="O42" s="5" t="str">
-        <f t="shared" ca="1" si="5"/>
-        <v>19850823</v>
-      </c>
-    </row>
-    <row r="43" spans="1:15" x14ac:dyDescent="0.3">
+        <f t="shared" ca="1" si="6"/>
+        <v>19920406</v>
+      </c>
+      <c r="P42" s="3" t="str">
+        <f t="shared" ca="1" si="7"/>
+        <v>23</v>
+      </c>
+    </row>
+    <row r="43" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A43" s="3">
         <v>462</v>
       </c>
@@ -3214,43 +3632,47 @@
       </c>
       <c r="E43" s="3" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>대구 중구</v>
+        <v>대구 동구 신암3동</v>
       </c>
       <c r="F43" s="3" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>01056264132</v>
+        <v>01063868655</v>
       </c>
       <c r="G43" s="4" t="s">
         <v>90</v>
       </c>
       <c r="H43" s="3" t="str">
         <f t="shared" ca="1" si="2"/>
-        <v>모두가능</v>
+        <v>출퇴근</v>
       </c>
       <c r="I43" s="3">
         <v>2024</v>
       </c>
       <c r="J43" s="3" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>02</v>
+        <v>06</v>
       </c>
       <c r="K43" s="3">
-        <f t="shared" ca="1" si="6"/>
-        <v>8</v>
+        <f t="shared" ca="1" si="4"/>
+        <v>47</v>
       </c>
       <c r="M43" t="s">
         <v>111</v>
       </c>
       <c r="N43" t="str">
-        <f t="shared" ca="1" si="4"/>
-        <v>세무학과</v>
+        <f t="shared" ca="1" si="5"/>
+        <v>경영학과</v>
       </c>
       <c r="O43" s="5" t="str">
-        <f t="shared" ca="1" si="5"/>
-        <v>19900825</v>
-      </c>
-    </row>
-    <row r="44" spans="1:15" x14ac:dyDescent="0.3">
+        <f t="shared" ca="1" si="6"/>
+        <v>19970621</v>
+      </c>
+      <c r="P43" s="3" t="str">
+        <f t="shared" ca="1" si="7"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="44" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A44" s="3">
         <v>473</v>
       </c>
@@ -3265,43 +3687,47 @@
       </c>
       <c r="E44" s="3" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>대구 달서구</v>
+        <v>대구 동구 신암3동</v>
       </c>
       <c r="F44" s="3" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>01033827576</v>
+        <v>01014146268</v>
       </c>
       <c r="G44" s="4" t="s">
         <v>91</v>
       </c>
       <c r="H44" s="3" t="str">
         <f t="shared" ca="1" si="2"/>
-        <v>출퇴근</v>
+        <v>재택</v>
       </c>
       <c r="I44" s="3">
         <v>2024</v>
       </c>
       <c r="J44" s="3" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>01</v>
+        <v>04</v>
       </c>
       <c r="K44" s="3">
-        <f t="shared" ca="1" si="6"/>
-        <v>7</v>
+        <f t="shared" ca="1" si="4"/>
+        <v>12</v>
       </c>
       <c r="M44" t="s">
         <v>112</v>
       </c>
       <c r="N44" t="str">
-        <f t="shared" ca="1" si="4"/>
+        <f t="shared" ca="1" si="5"/>
         <v>경영학과</v>
       </c>
       <c r="O44" s="5" t="str">
-        <f t="shared" ca="1" si="5"/>
-        <v>19950205</v>
-      </c>
-    </row>
-    <row r="45" spans="1:15" x14ac:dyDescent="0.3">
+        <f t="shared" ca="1" si="6"/>
+        <v>19890407</v>
+      </c>
+      <c r="P44" s="3" t="str">
+        <f t="shared" ca="1" si="7"/>
+        <v>28</v>
+      </c>
+    </row>
+    <row r="45" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A45" s="3">
         <v>484</v>
       </c>
@@ -3316,43 +3742,47 @@
       </c>
       <c r="E45" s="3" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>대구 달성군</v>
+        <v>대구 중구 성내1동</v>
       </c>
       <c r="F45" s="3" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>01024167038</v>
+        <v>01059622880</v>
       </c>
       <c r="G45" s="4" t="s">
         <v>92</v>
       </c>
       <c r="H45" s="3" t="str">
         <f t="shared" ca="1" si="2"/>
-        <v>출퇴근</v>
+        <v>모두가능</v>
       </c>
       <c r="I45" s="3">
         <v>2024</v>
       </c>
       <c r="J45" s="3" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>02</v>
+        <v>03</v>
       </c>
       <c r="K45" s="3">
-        <f t="shared" ca="1" si="6"/>
-        <v>9</v>
+        <f t="shared" ca="1" si="4"/>
+        <v>41</v>
       </c>
       <c r="M45" t="s">
         <v>113</v>
       </c>
       <c r="N45" t="str">
-        <f t="shared" ca="1" si="4"/>
+        <f t="shared" ca="1" si="5"/>
         <v>경제학과</v>
       </c>
       <c r="O45" s="5" t="str">
-        <f t="shared" ca="1" si="5"/>
-        <v>19960128</v>
-      </c>
-    </row>
-    <row r="46" spans="1:15" x14ac:dyDescent="0.3">
+        <f t="shared" ca="1" si="6"/>
+        <v>19831031</v>
+      </c>
+      <c r="P45" s="3" t="str">
+        <f t="shared" ca="1" si="7"/>
+        <v>15</v>
+      </c>
+    </row>
+    <row r="46" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A46" s="3">
         <v>495</v>
       </c>
@@ -3367,11 +3797,11 @@
       </c>
       <c r="E46" s="3" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>대구 남구</v>
+        <v>대구 중구 성내2동</v>
       </c>
       <c r="F46" s="3" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>01060246836</v>
+        <v>01029421494</v>
       </c>
       <c r="G46" s="4" t="s">
         <v>93</v>
@@ -3385,25 +3815,29 @@
       </c>
       <c r="J46" s="3" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>02</v>
+        <v>07</v>
       </c>
       <c r="K46" s="3">
-        <f t="shared" ca="1" si="6"/>
-        <v>8</v>
+        <f t="shared" ca="1" si="4"/>
+        <v>32</v>
       </c>
       <c r="M46" t="s">
         <v>114</v>
       </c>
       <c r="N46" t="str">
-        <f t="shared" ca="1" si="4"/>
-        <v>경영학과</v>
+        <f t="shared" ca="1" si="5"/>
+        <v>회계학과</v>
       </c>
       <c r="O46" s="5" t="str">
-        <f t="shared" ca="1" si="5"/>
-        <v>19930427</v>
-      </c>
-    </row>
-    <row r="47" spans="1:15" x14ac:dyDescent="0.3">
+        <f t="shared" ca="1" si="6"/>
+        <v>19931010</v>
+      </c>
+      <c r="P46" s="3" t="str">
+        <f t="shared" ca="1" si="7"/>
+        <v>9</v>
+      </c>
+    </row>
+    <row r="47" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A47" s="3">
         <v>506</v>
       </c>
@@ -3418,11 +3852,11 @@
       </c>
       <c r="E47" s="3" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>대구 서구</v>
+        <v>대구 동구 신암2동</v>
       </c>
       <c r="F47" s="3" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>01013863112</v>
+        <v>01048718843</v>
       </c>
       <c r="G47" s="4" t="s">
         <v>94</v>
@@ -3439,22 +3873,26 @@
         <v>08</v>
       </c>
       <c r="K47" s="3">
-        <f t="shared" ca="1" si="6"/>
-        <v>3</v>
+        <f t="shared" ca="1" si="4"/>
+        <v>38</v>
       </c>
       <c r="M47" t="s">
         <v>115</v>
       </c>
       <c r="N47" t="str">
-        <f t="shared" ca="1" si="4"/>
+        <f t="shared" ca="1" si="5"/>
         <v>회계학과</v>
       </c>
       <c r="O47" s="5" t="str">
-        <f t="shared" ca="1" si="5"/>
-        <v>19920207</v>
-      </c>
-    </row>
-    <row r="48" spans="1:15" x14ac:dyDescent="0.3">
+        <f t="shared" ca="1" si="6"/>
+        <v>19891224</v>
+      </c>
+      <c r="P47" s="3" t="str">
+        <f t="shared" ca="1" si="7"/>
+        <v>14</v>
+      </c>
+    </row>
+    <row r="48" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A48" s="3">
         <v>517</v>
       </c>
@@ -3469,11 +3907,11 @@
       </c>
       <c r="E48" s="3" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>대구 남구</v>
+        <v>대구 동구 신암1동</v>
       </c>
       <c r="F48" s="3" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>01033903859</v>
+        <v>01034288208</v>
       </c>
       <c r="G48" s="4" t="s">
         <v>95</v>
@@ -3487,25 +3925,29 @@
       </c>
       <c r="J48" s="3" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>02</v>
+        <v>08</v>
       </c>
       <c r="K48" s="3">
-        <f t="shared" ca="1" si="6"/>
-        <v>6</v>
+        <f t="shared" ca="1" si="4"/>
+        <v>39</v>
       </c>
       <c r="M48" t="s">
         <v>116</v>
       </c>
       <c r="N48" t="str">
-        <f t="shared" ca="1" si="4"/>
+        <f t="shared" ca="1" si="5"/>
         <v>경영학과</v>
       </c>
       <c r="O48" s="5" t="str">
-        <f t="shared" ca="1" si="5"/>
-        <v>19870613</v>
-      </c>
-    </row>
-    <row r="49" spans="1:15" x14ac:dyDescent="0.3">
+        <f t="shared" ca="1" si="6"/>
+        <v>19891009</v>
+      </c>
+      <c r="P48" s="3" t="str">
+        <f t="shared" ca="1" si="7"/>
+        <v>31</v>
+      </c>
+    </row>
+    <row r="49" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A49" s="3">
         <v>528</v>
       </c>
@@ -3520,43 +3962,47 @@
       </c>
       <c r="E49" s="3" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>대구 중구</v>
+        <v>대구 중구 남일동</v>
       </c>
       <c r="F49" s="3" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>01014211417</v>
+        <v>01062817631</v>
       </c>
       <c r="G49" s="4" t="s">
         <v>96</v>
       </c>
       <c r="H49" s="3" t="str">
         <f t="shared" ca="1" si="2"/>
-        <v>출퇴근</v>
+        <v>모두가능</v>
       </c>
       <c r="I49" s="3">
         <v>2024</v>
       </c>
       <c r="J49" s="3" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>02</v>
+        <v>03</v>
       </c>
       <c r="K49" s="3">
-        <f t="shared" ca="1" si="6"/>
-        <v>4</v>
+        <f t="shared" ca="1" si="4"/>
+        <v>26</v>
       </c>
       <c r="M49" t="s">
         <v>117</v>
       </c>
       <c r="N49" t="str">
-        <f t="shared" ca="1" si="4"/>
-        <v>경영학과</v>
+        <f t="shared" ca="1" si="5"/>
+        <v>세무학과</v>
       </c>
       <c r="O49" s="5" t="str">
-        <f t="shared" ca="1" si="5"/>
-        <v>19850125</v>
-      </c>
-    </row>
-    <row r="50" spans="1:15" x14ac:dyDescent="0.3">
+        <f t="shared" ca="1" si="6"/>
+        <v>19920226</v>
+      </c>
+      <c r="P49" s="3" t="str">
+        <f t="shared" ca="1" si="7"/>
+        <v>6</v>
+      </c>
+    </row>
+    <row r="50" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A50" s="3">
         <v>539</v>
       </c>
@@ -3571,11 +4017,11 @@
       </c>
       <c r="E50" s="3" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>대구 동구</v>
+        <v>대구 중구 성내2동</v>
       </c>
       <c r="F50" s="3" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>01029662197</v>
+        <v>01058334508</v>
       </c>
       <c r="G50" s="4" t="s">
         <v>97</v>
@@ -3589,25 +4035,29 @@
       </c>
       <c r="J50" s="3" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>03</v>
+        <v>04</v>
       </c>
       <c r="K50" s="3">
-        <f t="shared" ca="1" si="6"/>
-        <v>1</v>
+        <f t="shared" ca="1" si="4"/>
+        <v>71</v>
       </c>
       <c r="M50" t="s">
         <v>132</v>
       </c>
       <c r="N50" t="str">
-        <f t="shared" ca="1" si="4"/>
-        <v>경영학과</v>
+        <f t="shared" ca="1" si="5"/>
+        <v>회계학과</v>
       </c>
       <c r="O50" s="5" t="str">
-        <f t="shared" ca="1" si="5"/>
-        <v>19980920</v>
-      </c>
-    </row>
-    <row r="51" spans="1:15" x14ac:dyDescent="0.3">
+        <f t="shared" ca="1" si="6"/>
+        <v>19841220</v>
+      </c>
+      <c r="P50" s="3" t="str">
+        <f t="shared" ca="1" si="7"/>
+        <v>27</v>
+      </c>
+    </row>
+    <row r="51" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A51" s="3">
         <v>550</v>
       </c>
@@ -3622,43 +4072,47 @@
       </c>
       <c r="E51" s="3" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>대구 수성구</v>
+        <v>대구 중구 남일동</v>
       </c>
       <c r="F51" s="3" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>01033656701</v>
+        <v>01073631970</v>
       </c>
       <c r="G51" s="4" t="s">
         <v>98</v>
       </c>
       <c r="H51" s="3" t="str">
         <f t="shared" ca="1" si="2"/>
-        <v>출퇴근</v>
+        <v>재택</v>
       </c>
       <c r="I51" s="3">
         <v>2024</v>
       </c>
       <c r="J51" s="3" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>03</v>
+        <v>07</v>
       </c>
       <c r="K51" s="3">
-        <f t="shared" ca="1" si="6"/>
-        <v>10</v>
+        <f t="shared" ca="1" si="4"/>
+        <v>28</v>
       </c>
       <c r="M51" t="s">
         <v>133</v>
       </c>
       <c r="N51" t="str">
-        <f t="shared" ca="1" si="4"/>
-        <v>경영학과</v>
+        <f t="shared" ca="1" si="5"/>
+        <v>경제학과</v>
       </c>
       <c r="O51" s="5" t="str">
-        <f t="shared" ca="1" si="5"/>
-        <v>19970705</v>
-      </c>
-    </row>
-    <row r="52" spans="1:15" x14ac:dyDescent="0.3">
+        <f t="shared" ca="1" si="6"/>
+        <v>19930716</v>
+      </c>
+      <c r="P51" s="3" t="str">
+        <f t="shared" ca="1" si="7"/>
+        <v>20</v>
+      </c>
+    </row>
+    <row r="52" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A52" s="3"/>
       <c r="B52" s="3"/>
       <c r="C52" s="3"/>
@@ -3671,7 +4125,7 @@
       <c r="J52" s="3"/>
       <c r="K52" s="3"/>
     </row>
-    <row r="53" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A53" s="3"/>
       <c r="B53" s="3"/>
       <c r="C53" s="3"/>
@@ -3684,7 +4138,7 @@
       <c r="J53" s="3"/>
       <c r="K53" s="3"/>
     </row>
-    <row r="54" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A54" s="3"/>
       <c r="B54" s="3"/>
       <c r="C54" s="3"/>
@@ -3697,7 +4151,7 @@
       <c r="J54" s="3"/>
       <c r="K54" s="3"/>
     </row>
-    <row r="55" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A55" s="3"/>
       <c r="B55" s="3"/>
       <c r="C55" s="3"/>
@@ -3710,7 +4164,7 @@
       <c r="J55" s="3"/>
       <c r="K55" s="3"/>
     </row>
-    <row r="56" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A56" s="3"/>
       <c r="B56" s="3"/>
       <c r="C56" s="3"/>
@@ -3723,7 +4177,7 @@
       <c r="J56" s="3"/>
       <c r="K56" s="3"/>
     </row>
-    <row r="57" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A57" s="3"/>
       <c r="B57" s="3"/>
       <c r="C57" s="3"/>
@@ -3736,7 +4190,7 @@
       <c r="J57" s="3"/>
       <c r="K57" s="3"/>
     </row>
-    <row r="58" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A58" s="3"/>
       <c r="B58" s="3"/>
       <c r="C58" s="3"/>
@@ -3749,7 +4203,7 @@
       <c r="J58" s="3"/>
       <c r="K58" s="3"/>
     </row>
-    <row r="59" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A59" s="3"/>
       <c r="B59" s="3"/>
       <c r="C59" s="3"/>
@@ -3762,7 +4216,7 @@
       <c r="J59" s="3"/>
       <c r="K59" s="3"/>
     </row>
-    <row r="60" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A60" s="3"/>
       <c r="B60" s="3"/>
       <c r="C60" s="3"/>
@@ -3775,7 +4229,7 @@
       <c r="J60" s="3"/>
       <c r="K60" s="3"/>
     </row>
-    <row r="61" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A61" s="3"/>
       <c r="B61" s="3"/>
       <c r="C61" s="3"/>
@@ -3788,7 +4242,7 @@
       <c r="J61" s="3"/>
       <c r="K61" s="3"/>
     </row>
-    <row r="62" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A62" s="3"/>
       <c r="B62" s="3"/>
       <c r="C62" s="3"/>
@@ -3801,7 +4255,7 @@
       <c r="J62" s="3"/>
       <c r="K62" s="3"/>
     </row>
-    <row r="63" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A63" s="3"/>
       <c r="B63" s="3"/>
       <c r="C63" s="3"/>
@@ -3814,7 +4268,7 @@
       <c r="J63" s="3"/>
       <c r="K63" s="3"/>
     </row>
-    <row r="64" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A64" s="3"/>
       <c r="B64" s="3"/>
       <c r="C64" s="3"/>

--- a/back/routes/dummyIndividual.xlsx
+++ b/back/routes/dummyIndividual.xlsx
@@ -1081,7 +1081,7 @@
   <dimension ref="A1:U204"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="I1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="S15" sqref="S15"/>
+      <selection activeCell="P2" sqref="P2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -1175,11 +1175,11 @@
       </c>
       <c r="E2" s="2" t="str">
         <f ca="1">"대구 " &amp; INDEX($Q$1:$Q$35, RANDBETWEEN(1, 8))</f>
-        <v>대구 동구 신암2동</v>
+        <v>대구 중구 남일동</v>
       </c>
       <c r="F2" s="1" t="str">
         <f ca="1">"0" &amp; TEXT(RANDBETWEEN(1000000000, 1099999999), "0000000000")</f>
-        <v>01031566180</v>
+        <v>01065375792</v>
       </c>
       <c r="G2" s="4" t="s">
         <v>32</v>
@@ -1192,12 +1192,12 @@
         <v>2024</v>
       </c>
       <c r="J2" s="1" t="str">
-        <f ca="1">"0" &amp; TEXT(RANDBETWEEN(1, 9), "0")</f>
-        <v>08</v>
+        <f ca="1">TEXT(IF(RANDBETWEEN(1,12) &lt; 10, "0" &amp; RANDBETWEEN(1, 12), RANDBETWEEN(1, 12)), "00")</f>
+        <v>12</v>
       </c>
       <c r="K2" s="2">
         <f ca="1">RANDBETWEEN(0,84)</f>
-        <v>73</v>
+        <v>79</v>
       </c>
       <c r="L2" s="1" t="s">
         <v>71</v>
@@ -1207,14 +1207,14 @@
       </c>
       <c r="N2" t="str">
         <f ca="1">INDEX($L$12:$L$15, RANDBETWEEN(1, 4))</f>
-        <v>세무학과</v>
+        <v>경영학과</v>
       </c>
       <c r="O2" s="5" t="str">
         <f ca="1">TEXT(INT((DATE(2001,1,1)-DATE(1980,1,1)+1)*RAND()+DATE(1980,1,1)), "YYYYMMDD")</f>
-        <v>19950904</v>
+        <v>19810114</v>
       </c>
       <c r="P2" s="1" t="str">
-        <f ca="1">TEXT(RANDBETWEEN(1, 31), "0")</f>
+        <f ca="1">TEXT(IF(RANDBETWEEN(1, 31) &lt; 10, "0" &amp; RANDBETWEEN(1, 31), RANDBETWEEN(1, 31)), "00")</f>
         <v>16</v>
       </c>
       <c r="Q2" s="1" t="s">
@@ -1238,11 +1238,11 @@
       </c>
       <c r="E3" s="3" t="str">
         <f t="shared" ref="E3:E51" ca="1" si="0">"대구 " &amp; INDEX($Q$1:$Q$35, RANDBETWEEN(1, 8))</f>
-        <v>대구 중구 삼덕동</v>
+        <v>대구 동구 신암1동</v>
       </c>
       <c r="F3" s="2" t="str">
         <f t="shared" ref="F3:F51" ca="1" si="1">"0" &amp; TEXT(RANDBETWEEN(1000000000, 1099999999), "0000000000")</f>
-        <v>01054880165</v>
+        <v>01034352606</v>
       </c>
       <c r="G3" s="4" t="s">
         <v>33</v>
@@ -1254,13 +1254,13 @@
       <c r="I3" s="2">
         <v>2024</v>
       </c>
-      <c r="J3" s="2" t="str">
-        <f t="shared" ref="J3:J51" ca="1" si="3">"0" &amp; TEXT(RANDBETWEEN(1, 9), "0")</f>
-        <v>06</v>
+      <c r="J3" s="3" t="str">
+        <f t="shared" ref="J3:J51" ca="1" si="3">TEXT(IF(RANDBETWEEN(1,12) &lt; 10, "0" &amp; RANDBETWEEN(1, 12), RANDBETWEEN(1, 12)), "00")</f>
+        <v>07</v>
       </c>
       <c r="K3" s="3">
         <f t="shared" ref="K3:K51" ca="1" si="4">RANDBETWEEN(0,84)</f>
-        <v>76</v>
+        <v>13</v>
       </c>
       <c r="L3" s="1" t="s">
         <v>72</v>
@@ -1274,11 +1274,11 @@
       </c>
       <c r="O3" s="5" t="str">
         <f t="shared" ref="O3:O51" ca="1" si="6">TEXT(INT((DATE(2001,1,1)-DATE(1980,1,1)+1)*RAND()+DATE(1980,1,1)), "YYYYMMDD")</f>
-        <v>19940220</v>
+        <v>19850722</v>
       </c>
       <c r="P3" s="3" t="str">
-        <f t="shared" ref="P3:P51" ca="1" si="7">TEXT(RANDBETWEEN(1, 31), "0")</f>
-        <v>17</v>
+        <f t="shared" ref="P3:P51" ca="1" si="7">TEXT(IF(RANDBETWEEN(1, 31) &lt; 10, "0" &amp; RANDBETWEEN(1, 31), RANDBETWEEN(1, 31)), "00")</f>
+        <v>12</v>
       </c>
       <c r="Q3" s="1" t="s">
         <v>152</v>
@@ -1301,29 +1301,29 @@
       </c>
       <c r="E4" s="3" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>대구 중구 남일동</v>
+        <v>대구 중구 삼덕동</v>
       </c>
       <c r="F4" s="2" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>01067276833</v>
+        <v>01028912068</v>
       </c>
       <c r="G4" s="4" t="s">
         <v>34</v>
       </c>
       <c r="H4" s="3" t="str">
         <f t="shared" ca="1" si="2"/>
-        <v>출퇴근</v>
+        <v>재택</v>
       </c>
       <c r="I4" s="2">
         <v>2024</v>
       </c>
-      <c r="J4" s="2" t="str">
+      <c r="J4" s="3" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>06</v>
+        <v>03</v>
       </c>
       <c r="K4" s="3">
         <f t="shared" ca="1" si="4"/>
-        <v>22</v>
+        <v>35</v>
       </c>
       <c r="L4" s="1" t="s">
         <v>73</v>
@@ -1337,11 +1337,11 @@
       </c>
       <c r="O4" s="5" t="str">
         <f t="shared" ca="1" si="6"/>
-        <v>19971123</v>
+        <v>19800803</v>
       </c>
       <c r="P4" s="3" t="str">
         <f t="shared" ca="1" si="7"/>
-        <v>24</v>
+        <v>04</v>
       </c>
       <c r="Q4" s="1" t="s">
         <v>153</v>
@@ -1364,29 +1364,29 @@
       </c>
       <c r="E5" s="3" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>대구 중구 성내1동</v>
+        <v>대구 동구 신암3동</v>
       </c>
       <c r="F5" s="2" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>01088058249</v>
+        <v>01030246037</v>
       </c>
       <c r="G5" s="4" t="s">
         <v>35</v>
       </c>
       <c r="H5" s="3" t="str">
         <f t="shared" ca="1" si="2"/>
-        <v>모두가능</v>
+        <v>재택</v>
       </c>
       <c r="I5" s="2">
         <v>2024</v>
       </c>
-      <c r="J5" s="2" t="str">
+      <c r="J5" s="3" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>05</v>
+        <v>04</v>
       </c>
       <c r="K5" s="3">
         <f t="shared" ca="1" si="4"/>
-        <v>51</v>
+        <v>55</v>
       </c>
       <c r="L5" s="1" t="s">
         <v>74</v>
@@ -1400,11 +1400,11 @@
       </c>
       <c r="O5" s="5" t="str">
         <f t="shared" ca="1" si="6"/>
-        <v>19881225</v>
+        <v>20000509</v>
       </c>
       <c r="P5" s="3" t="str">
         <f t="shared" ca="1" si="7"/>
-        <v>1</v>
+        <v>30</v>
       </c>
       <c r="Q5" s="1" t="s">
         <v>154</v>
@@ -1431,25 +1431,25 @@
       </c>
       <c r="F6" s="2" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>01069669920</v>
+        <v>01062940734</v>
       </c>
       <c r="G6" s="4" t="s">
         <v>36</v>
       </c>
       <c r="H6" s="3" t="str">
         <f t="shared" ca="1" si="2"/>
-        <v>재택</v>
+        <v>출퇴근</v>
       </c>
       <c r="I6" s="2">
         <v>2024</v>
       </c>
-      <c r="J6" s="2" t="str">
+      <c r="J6" s="3" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>09</v>
+        <v>02</v>
       </c>
       <c r="K6" s="3">
         <f t="shared" ca="1" si="4"/>
-        <v>32</v>
+        <v>50</v>
       </c>
       <c r="L6" s="1" t="s">
         <v>75</v>
@@ -1463,11 +1463,11 @@
       </c>
       <c r="O6" s="5" t="str">
         <f t="shared" ca="1" si="6"/>
-        <v>19960902</v>
+        <v>19950221</v>
       </c>
       <c r="P6" s="3" t="str">
         <f t="shared" ca="1" si="7"/>
-        <v>5</v>
+        <v>25</v>
       </c>
       <c r="Q6" s="1" t="s">
         <v>155</v>
@@ -1490,29 +1490,29 @@
       </c>
       <c r="E7" s="3" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>대구 중구 성내2동</v>
+        <v>대구 동구 신암1동</v>
       </c>
       <c r="F7" s="2" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>01052202205</v>
+        <v>01027840134</v>
       </c>
       <c r="G7" s="4" t="s">
         <v>37</v>
       </c>
       <c r="H7" s="3" t="str">
         <f t="shared" ca="1" si="2"/>
-        <v>재택</v>
+        <v>출퇴근</v>
       </c>
       <c r="I7" s="2">
         <v>2024</v>
       </c>
-      <c r="J7" s="2" t="str">
+      <c r="J7" s="3" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>07</v>
+        <v>09</v>
       </c>
       <c r="K7" s="3">
         <f t="shared" ca="1" si="4"/>
-        <v>29</v>
+        <v>67</v>
       </c>
       <c r="L7" s="1" t="s">
         <v>76</v>
@@ -1522,15 +1522,15 @@
       </c>
       <c r="N7" t="str">
         <f t="shared" ca="1" si="5"/>
-        <v>회계학과</v>
+        <v>경제학과</v>
       </c>
       <c r="O7" s="5" t="str">
         <f t="shared" ca="1" si="6"/>
-        <v>19961030</v>
+        <v>19960425</v>
       </c>
       <c r="P7" s="3" t="str">
         <f t="shared" ca="1" si="7"/>
-        <v>3</v>
+        <v>04</v>
       </c>
       <c r="Q7" s="1" t="s">
         <v>156</v>
@@ -1553,29 +1553,29 @@
       </c>
       <c r="E8" s="3" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>대구 중구 성내2동</v>
+        <v>대구 중구 남일동</v>
       </c>
       <c r="F8" s="2" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>01021278105</v>
+        <v>01085701550</v>
       </c>
       <c r="G8" s="4" t="s">
         <v>38</v>
       </c>
       <c r="H8" s="3" t="str">
         <f t="shared" ca="1" si="2"/>
-        <v>재택</v>
+        <v>출퇴근</v>
       </c>
       <c r="I8" s="2">
         <v>2024</v>
       </c>
-      <c r="J8" s="2" t="str">
+      <c r="J8" s="3" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>06</v>
+        <v>11</v>
       </c>
       <c r="K8" s="3">
         <f t="shared" ca="1" si="4"/>
-        <v>13</v>
+        <v>46</v>
       </c>
       <c r="L8" s="1" t="s">
         <v>77</v>
@@ -1585,15 +1585,15 @@
       </c>
       <c r="N8" t="str">
         <f t="shared" ca="1" si="5"/>
-        <v>세무학과</v>
+        <v>회계학과</v>
       </c>
       <c r="O8" s="5" t="str">
         <f t="shared" ca="1" si="6"/>
-        <v>19890509</v>
+        <v>19850214</v>
       </c>
       <c r="P8" s="3" t="str">
         <f t="shared" ca="1" si="7"/>
-        <v>21</v>
+        <v>10</v>
       </c>
       <c r="Q8" s="1" t="s">
         <v>157</v>
@@ -1616,11 +1616,11 @@
       </c>
       <c r="E9" s="3" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>대구 중구 성내1동</v>
+        <v>대구 중구 동인동</v>
       </c>
       <c r="F9" s="2" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>01085831227</v>
+        <v>01005464134</v>
       </c>
       <c r="G9" s="4" t="s">
         <v>39</v>
@@ -1632,13 +1632,13 @@
       <c r="I9" s="2">
         <v>2024</v>
       </c>
-      <c r="J9" s="2" t="str">
+      <c r="J9" s="3" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>03</v>
+        <v>02</v>
       </c>
       <c r="K9" s="3">
         <f t="shared" ca="1" si="4"/>
-        <v>72</v>
+        <v>36</v>
       </c>
       <c r="L9" s="1" t="s">
         <v>141</v>
@@ -1648,15 +1648,15 @@
       </c>
       <c r="N9" t="str">
         <f t="shared" ca="1" si="5"/>
-        <v>회계학과</v>
+        <v>경영학과</v>
       </c>
       <c r="O9" s="5" t="str">
         <f t="shared" ca="1" si="6"/>
-        <v>19870717</v>
+        <v>19880619</v>
       </c>
       <c r="P9" s="3" t="str">
         <f t="shared" ca="1" si="7"/>
-        <v>9</v>
+        <v>01</v>
       </c>
       <c r="Q9" s="1" t="s">
         <v>158</v>
@@ -1679,29 +1679,29 @@
       </c>
       <c r="E10" s="3" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>대구 중구 성내1동</v>
+        <v>대구 동구 신암2동</v>
       </c>
       <c r="F10" s="2" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>01037923349</v>
+        <v>01039776598</v>
       </c>
       <c r="G10" s="4" t="s">
         <v>40</v>
       </c>
       <c r="H10" s="3" t="str">
         <f t="shared" ca="1" si="2"/>
-        <v>모두가능</v>
+        <v>재택</v>
       </c>
       <c r="I10" s="2">
         <v>2024</v>
       </c>
-      <c r="J10" s="2" t="str">
+      <c r="J10" s="3" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>05</v>
+        <v>06</v>
       </c>
       <c r="K10" s="3">
         <f t="shared" ca="1" si="4"/>
-        <v>1</v>
+        <v>76</v>
       </c>
       <c r="L10" s="1" t="s">
         <v>142</v>
@@ -1715,11 +1715,11 @@
       </c>
       <c r="O10" s="5" t="str">
         <f t="shared" ca="1" si="6"/>
-        <v>19940908</v>
+        <v>19820902</v>
       </c>
       <c r="P10" s="3" t="str">
         <f t="shared" ca="1" si="7"/>
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="Q10" s="1" t="s">
         <v>159</v>
@@ -1742,29 +1742,29 @@
       </c>
       <c r="E11" s="3" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>대구 중구 남일동</v>
+        <v>대구 동구 신암2동</v>
       </c>
       <c r="F11" s="2" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>01099505221</v>
+        <v>01019034312</v>
       </c>
       <c r="G11" s="4" t="s">
         <v>41</v>
       </c>
       <c r="H11" s="3" t="str">
         <f t="shared" ca="1" si="2"/>
-        <v>출퇴근</v>
+        <v>모두가능</v>
       </c>
       <c r="I11" s="2">
         <v>2024</v>
       </c>
-      <c r="J11" s="2" t="str">
+      <c r="J11" s="3" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>01</v>
+        <v>04</v>
       </c>
       <c r="K11" s="3">
         <f t="shared" ca="1" si="4"/>
-        <v>81</v>
+        <v>73</v>
       </c>
       <c r="L11" s="1" t="s">
         <v>143</v>
@@ -1778,11 +1778,11 @@
       </c>
       <c r="O11" s="5" t="str">
         <f t="shared" ca="1" si="6"/>
-        <v>19830622</v>
+        <v>19870317</v>
       </c>
       <c r="P11" s="3" t="str">
         <f t="shared" ca="1" si="7"/>
-        <v>16</v>
+        <v>08</v>
       </c>
       <c r="Q11" s="1" t="s">
         <v>160</v>
@@ -1809,7 +1809,7 @@
       </c>
       <c r="F12" s="2" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>01091748639</v>
+        <v>01036272945</v>
       </c>
       <c r="G12" s="4" t="s">
         <v>42</v>
@@ -1821,13 +1821,13 @@
       <c r="I12" s="2">
         <v>2024</v>
       </c>
-      <c r="J12" s="2" t="str">
+      <c r="J12" s="3" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>06</v>
+        <v>01</v>
       </c>
       <c r="K12" s="3">
         <f t="shared" ca="1" si="4"/>
-        <v>53</v>
+        <v>36</v>
       </c>
       <c r="L12" s="1" t="s">
         <v>144</v>
@@ -1837,15 +1837,15 @@
       </c>
       <c r="N12" t="str">
         <f t="shared" ca="1" si="5"/>
-        <v>경영학과</v>
+        <v>경제학과</v>
       </c>
       <c r="O12" s="5" t="str">
         <f t="shared" ca="1" si="6"/>
-        <v>19961104</v>
+        <v>19970927</v>
       </c>
       <c r="P12" s="3" t="str">
         <f t="shared" ca="1" si="7"/>
-        <v>10</v>
+        <v>07</v>
       </c>
       <c r="Q12" s="1" t="s">
         <v>161</v>
@@ -1868,29 +1868,29 @@
       </c>
       <c r="E13" s="3" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>대구 중구 삼덕동</v>
+        <v>대구 중구 성내1동</v>
       </c>
       <c r="F13" s="2" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>01087722687</v>
+        <v>01071003992</v>
       </c>
       <c r="G13" s="4" t="s">
         <v>43</v>
       </c>
       <c r="H13" s="3" t="str">
         <f t="shared" ca="1" si="2"/>
-        <v>재택</v>
+        <v>모두가능</v>
       </c>
       <c r="I13" s="2">
         <v>2024</v>
       </c>
-      <c r="J13" s="2" t="str">
+      <c r="J13" s="3" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>01</v>
+        <v>03</v>
       </c>
       <c r="K13" s="3">
         <f t="shared" ca="1" si="4"/>
-        <v>84</v>
+        <v>53</v>
       </c>
       <c r="L13" s="1" t="s">
         <v>145</v>
@@ -1900,15 +1900,15 @@
       </c>
       <c r="N13" t="str">
         <f t="shared" ca="1" si="5"/>
-        <v>경영학과</v>
+        <v>회계학과</v>
       </c>
       <c r="O13" s="5" t="str">
         <f t="shared" ca="1" si="6"/>
-        <v>19990420</v>
+        <v>19880617</v>
       </c>
       <c r="P13" s="3" t="str">
         <f t="shared" ca="1" si="7"/>
-        <v>3</v>
+        <v>18</v>
       </c>
       <c r="Q13" s="1" t="s">
         <v>162</v>
@@ -1931,29 +1931,29 @@
       </c>
       <c r="E14" s="3" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>대구 동구 신암1동</v>
+        <v>대구 중구 동인동</v>
       </c>
       <c r="F14" s="2" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>01091501648</v>
+        <v>01030925537</v>
       </c>
       <c r="G14" s="4" t="s">
         <v>44</v>
       </c>
       <c r="H14" s="3" t="str">
         <f t="shared" ca="1" si="2"/>
-        <v>모두가능</v>
+        <v>출퇴근</v>
       </c>
       <c r="I14" s="2">
         <v>2024</v>
       </c>
-      <c r="J14" s="2" t="str">
+      <c r="J14" s="3" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>05</v>
+        <v>11</v>
       </c>
       <c r="K14" s="3">
         <f t="shared" ca="1" si="4"/>
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="L14" s="1" t="s">
         <v>146</v>
@@ -1963,15 +1963,15 @@
       </c>
       <c r="N14" t="str">
         <f t="shared" ca="1" si="5"/>
-        <v>경영학과</v>
+        <v>경제학과</v>
       </c>
       <c r="O14" s="5" t="str">
         <f t="shared" ca="1" si="6"/>
-        <v>19910811</v>
+        <v>19950802</v>
       </c>
       <c r="P14" s="3" t="str">
         <f t="shared" ca="1" si="7"/>
-        <v>21</v>
+        <v>26</v>
       </c>
       <c r="Q14" s="1" t="s">
         <v>163</v>
@@ -1994,29 +1994,29 @@
       </c>
       <c r="E15" s="3" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>대구 중구 성내2동</v>
+        <v>대구 중구 성내1동</v>
       </c>
       <c r="F15" s="2" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>01071898218</v>
+        <v>01064544717</v>
       </c>
       <c r="G15" s="4" t="s">
         <v>45</v>
       </c>
       <c r="H15" s="3" t="str">
         <f t="shared" ca="1" si="2"/>
-        <v>출퇴근</v>
+        <v>재택</v>
       </c>
       <c r="I15" s="2">
         <v>2024</v>
       </c>
-      <c r="J15" s="2" t="str">
+      <c r="J15" s="3" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>06</v>
+        <v>05</v>
       </c>
       <c r="K15" s="3">
         <f t="shared" ca="1" si="4"/>
-        <v>64</v>
+        <v>11</v>
       </c>
       <c r="L15" s="1" t="s">
         <v>147</v>
@@ -2026,15 +2026,15 @@
       </c>
       <c r="N15" t="str">
         <f t="shared" ca="1" si="5"/>
-        <v>세무학과</v>
+        <v>경영학과</v>
       </c>
       <c r="O15" s="5" t="str">
         <f t="shared" ca="1" si="6"/>
-        <v>19901031</v>
+        <v>19861019</v>
       </c>
       <c r="P15" s="3" t="str">
         <f t="shared" ca="1" si="7"/>
-        <v>12</v>
+        <v>23</v>
       </c>
       <c r="Q15" s="1" t="s">
         <v>164</v>
@@ -2057,25 +2057,25 @@
       </c>
       <c r="E16" s="3" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>대구 중구 동인동</v>
+        <v>대구 동구 신암1동</v>
       </c>
       <c r="F16" s="2" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>01033943858</v>
+        <v>01011202192</v>
       </c>
       <c r="G16" s="4" t="s">
         <v>46</v>
       </c>
       <c r="H16" s="3" t="str">
         <f t="shared" ca="1" si="2"/>
-        <v>모두가능</v>
+        <v>재택</v>
       </c>
       <c r="I16" s="2">
         <v>2024</v>
       </c>
-      <c r="J16" s="2" t="str">
+      <c r="J16" s="3" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>09</v>
+        <v>01</v>
       </c>
       <c r="K16" s="3">
         <f t="shared" ca="1" si="4"/>
@@ -2086,15 +2086,15 @@
       </c>
       <c r="N16" t="str">
         <f t="shared" ca="1" si="5"/>
-        <v>세무학과</v>
+        <v>경제학과</v>
       </c>
       <c r="O16" s="5" t="str">
         <f t="shared" ca="1" si="6"/>
-        <v>19880119</v>
+        <v>19900629</v>
       </c>
       <c r="P16" s="3" t="str">
         <f t="shared" ca="1" si="7"/>
-        <v>3</v>
+        <v>03</v>
       </c>
       <c r="Q16" s="1" t="s">
         <v>165</v>
@@ -2117,11 +2117,11 @@
       </c>
       <c r="E17" s="3" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>대구 중구 성내2동</v>
+        <v>대구 중구 성내1동</v>
       </c>
       <c r="F17" s="2" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>01000802009</v>
+        <v>01042349497</v>
       </c>
       <c r="G17" s="4" t="s">
         <v>47</v>
@@ -2133,28 +2133,28 @@
       <c r="I17" s="2">
         <v>2024</v>
       </c>
-      <c r="J17" s="2" t="str">
+      <c r="J17" s="3" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>05</v>
+        <v>04</v>
       </c>
       <c r="K17" s="3">
         <f t="shared" ca="1" si="4"/>
-        <v>45</v>
+        <v>30</v>
       </c>
       <c r="M17" t="s">
         <v>115</v>
       </c>
       <c r="N17" t="str">
         <f t="shared" ca="1" si="5"/>
-        <v>경영학과</v>
+        <v>세무학과</v>
       </c>
       <c r="O17" s="5" t="str">
         <f t="shared" ca="1" si="6"/>
-        <v>19811110</v>
+        <v>19890516</v>
       </c>
       <c r="P17" s="3" t="str">
         <f t="shared" ca="1" si="7"/>
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="Q17" s="1" t="s">
         <v>166</v>
@@ -2177,11 +2177,11 @@
       </c>
       <c r="E18" s="3" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>대구 중구 동인동</v>
+        <v>대구 중구 삼덕동</v>
       </c>
       <c r="F18" s="2" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>01087994744</v>
+        <v>01023591370</v>
       </c>
       <c r="G18" s="4" t="s">
         <v>48</v>
@@ -2193,28 +2193,28 @@
       <c r="I18" s="2">
         <v>2024</v>
       </c>
-      <c r="J18" s="2" t="str">
+      <c r="J18" s="3" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>01</v>
+        <v>09</v>
       </c>
       <c r="K18" s="3">
         <f t="shared" ca="1" si="4"/>
-        <v>24</v>
+        <v>31</v>
       </c>
       <c r="M18" t="s">
         <v>116</v>
       </c>
       <c r="N18" t="str">
         <f t="shared" ca="1" si="5"/>
-        <v>경제학과</v>
+        <v>회계학과</v>
       </c>
       <c r="O18" s="5" t="str">
         <f t="shared" ca="1" si="6"/>
-        <v>19860920</v>
+        <v>19910813</v>
       </c>
       <c r="P18" s="3" t="str">
         <f t="shared" ca="1" si="7"/>
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="Q18" s="1" t="s">
         <v>167</v>
@@ -2237,44 +2237,44 @@
       </c>
       <c r="E19" s="3" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>대구 중구 성내1동</v>
+        <v>대구 중구 동인동</v>
       </c>
       <c r="F19" s="2" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>01042433000</v>
+        <v>01062183057</v>
       </c>
       <c r="G19" s="4" t="s">
         <v>49</v>
       </c>
       <c r="H19" s="3" t="str">
         <f t="shared" ca="1" si="2"/>
-        <v>모두가능</v>
+        <v>출퇴근</v>
       </c>
       <c r="I19" s="2">
         <v>2024</v>
       </c>
-      <c r="J19" s="2" t="str">
+      <c r="J19" s="3" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>03</v>
+        <v>10</v>
       </c>
       <c r="K19" s="3">
         <f t="shared" ca="1" si="4"/>
-        <v>33</v>
+        <v>71</v>
       </c>
       <c r="M19" t="s">
         <v>117</v>
       </c>
       <c r="N19" t="str">
         <f t="shared" ca="1" si="5"/>
-        <v>경제학과</v>
+        <v>경영학과</v>
       </c>
       <c r="O19" s="5" t="str">
         <f t="shared" ca="1" si="6"/>
-        <v>19910526</v>
+        <v>19910124</v>
       </c>
       <c r="P19" s="3" t="str">
         <f t="shared" ca="1" si="7"/>
-        <v>24</v>
+        <v>14</v>
       </c>
       <c r="Q19" s="1" t="s">
         <v>168</v>
@@ -2301,7 +2301,7 @@
       </c>
       <c r="F20" s="2" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>01067435441</v>
+        <v>01055053108</v>
       </c>
       <c r="G20" s="4" t="s">
         <v>50</v>
@@ -2313,28 +2313,28 @@
       <c r="I20" s="2">
         <v>2024</v>
       </c>
-      <c r="J20" s="2" t="str">
+      <c r="J20" s="3" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>02</v>
+        <v>09</v>
       </c>
       <c r="K20" s="3">
         <f t="shared" ca="1" si="4"/>
-        <v>24</v>
+        <v>13</v>
       </c>
       <c r="M20" t="s">
         <v>118</v>
       </c>
       <c r="N20" t="str">
         <f t="shared" ca="1" si="5"/>
-        <v>경영학과</v>
+        <v>세무학과</v>
       </c>
       <c r="O20" s="5" t="str">
         <f t="shared" ca="1" si="6"/>
-        <v>19880518</v>
+        <v>19980217</v>
       </c>
       <c r="P20" s="3" t="str">
         <f t="shared" ca="1" si="7"/>
-        <v>21</v>
+        <v>06</v>
       </c>
       <c r="Q20" s="1" t="s">
         <v>169</v>
@@ -2361,25 +2361,25 @@
       </c>
       <c r="F21" s="2" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>01099343296</v>
+        <v>01002117275</v>
       </c>
       <c r="G21" s="4" t="s">
         <v>51</v>
       </c>
       <c r="H21" s="3" t="str">
         <f t="shared" ca="1" si="2"/>
-        <v>모두가능</v>
+        <v>재택</v>
       </c>
       <c r="I21" s="2">
         <v>2024</v>
       </c>
-      <c r="J21" s="2" t="str">
+      <c r="J21" s="3" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>05</v>
+        <v>12</v>
       </c>
       <c r="K21" s="3">
         <f t="shared" ca="1" si="4"/>
-        <v>64</v>
+        <v>9</v>
       </c>
       <c r="M21" t="s">
         <v>119</v>
@@ -2390,11 +2390,11 @@
       </c>
       <c r="O21" s="5" t="str">
         <f t="shared" ca="1" si="6"/>
-        <v>19800612</v>
+        <v>19841230</v>
       </c>
       <c r="P21" s="3" t="str">
         <f t="shared" ca="1" si="7"/>
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="Q21" s="1" t="s">
         <v>170</v>
@@ -2417,44 +2417,44 @@
       </c>
       <c r="E22" s="3" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>대구 동구 신암1동</v>
+        <v>대구 중구 남일동</v>
       </c>
       <c r="F22" s="2" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>01095399028</v>
+        <v>01005660486</v>
       </c>
       <c r="G22" s="4" t="s">
         <v>52</v>
       </c>
       <c r="H22" s="3" t="str">
         <f t="shared" ca="1" si="2"/>
-        <v>출퇴근</v>
+        <v>모두가능</v>
       </c>
       <c r="I22" s="2">
         <v>2024</v>
       </c>
-      <c r="J22" s="2" t="str">
+      <c r="J22" s="3" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>08</v>
+        <v>06</v>
       </c>
       <c r="K22" s="3">
         <f t="shared" ca="1" si="4"/>
-        <v>12</v>
+        <v>84</v>
       </c>
       <c r="M22" t="s">
         <v>120</v>
       </c>
       <c r="N22" t="str">
         <f t="shared" ca="1" si="5"/>
-        <v>세무학과</v>
+        <v>경영학과</v>
       </c>
       <c r="O22" s="5" t="str">
         <f t="shared" ca="1" si="6"/>
-        <v>19950617</v>
+        <v>19920810</v>
       </c>
       <c r="P22" s="3" t="str">
         <f t="shared" ca="1" si="7"/>
-        <v>6</v>
+        <v>21</v>
       </c>
       <c r="Q22" s="1" t="s">
         <v>171</v>
@@ -2477,44 +2477,44 @@
       </c>
       <c r="E23" s="3" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>대구 동구 신암1동</v>
+        <v>대구 중구 삼덕동</v>
       </c>
       <c r="F23" s="2" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>01000278949</v>
+        <v>01014688222</v>
       </c>
       <c r="G23" s="4" t="s">
         <v>53</v>
       </c>
       <c r="H23" s="3" t="str">
         <f t="shared" ca="1" si="2"/>
-        <v>출퇴근</v>
+        <v>재택</v>
       </c>
       <c r="I23" s="2">
         <v>2024</v>
       </c>
-      <c r="J23" s="2" t="str">
+      <c r="J23" s="3" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>04</v>
+        <v>05</v>
       </c>
       <c r="K23" s="3">
         <f t="shared" ca="1" si="4"/>
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="M23" t="s">
         <v>121</v>
       </c>
       <c r="N23" t="str">
         <f t="shared" ca="1" si="5"/>
-        <v>세무학과</v>
+        <v>회계학과</v>
       </c>
       <c r="O23" s="5" t="str">
         <f t="shared" ca="1" si="6"/>
-        <v>19891002</v>
+        <v>19850714</v>
       </c>
       <c r="P23" s="3" t="str">
         <f t="shared" ca="1" si="7"/>
-        <v>2</v>
+        <v>12</v>
       </c>
       <c r="Q23" s="1" t="s">
         <v>172</v>
@@ -2541,25 +2541,25 @@
       </c>
       <c r="F24" s="2" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>01047234916</v>
+        <v>01061245843</v>
       </c>
       <c r="G24" s="4" t="s">
         <v>54</v>
       </c>
       <c r="H24" s="3" t="str">
         <f t="shared" ca="1" si="2"/>
-        <v>모두가능</v>
+        <v>출퇴근</v>
       </c>
       <c r="I24" s="2">
         <v>2024</v>
       </c>
-      <c r="J24" s="2" t="str">
+      <c r="J24" s="3" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>05</v>
+        <v>04</v>
       </c>
       <c r="K24" s="3">
         <f t="shared" ca="1" si="4"/>
-        <v>55</v>
+        <v>79</v>
       </c>
       <c r="M24" t="s">
         <v>122</v>
@@ -2570,11 +2570,11 @@
       </c>
       <c r="O24" s="5" t="str">
         <f t="shared" ca="1" si="6"/>
-        <v>19981215</v>
+        <v>19960130</v>
       </c>
       <c r="P24" s="3" t="str">
         <f t="shared" ca="1" si="7"/>
-        <v>28</v>
+        <v>20</v>
       </c>
       <c r="Q24" s="1" t="s">
         <v>173</v>
@@ -2597,29 +2597,29 @@
       </c>
       <c r="E25" s="3" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>대구 동구 신암3동</v>
+        <v>대구 중구 성내1동</v>
       </c>
       <c r="F25" s="2" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>01074316616</v>
+        <v>01078553977</v>
       </c>
       <c r="G25" s="4" t="s">
         <v>55</v>
       </c>
       <c r="H25" s="3" t="str">
         <f t="shared" ca="1" si="2"/>
-        <v>출퇴근</v>
+        <v>재택</v>
       </c>
       <c r="I25" s="2">
         <v>2024</v>
       </c>
-      <c r="J25" s="2" t="str">
+      <c r="J25" s="3" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>04</v>
+        <v>06</v>
       </c>
       <c r="K25" s="3">
         <f t="shared" ca="1" si="4"/>
-        <v>28</v>
+        <v>43</v>
       </c>
       <c r="M25" t="s">
         <v>123</v>
@@ -2630,11 +2630,11 @@
       </c>
       <c r="O25" s="5" t="str">
         <f t="shared" ca="1" si="6"/>
-        <v>19830828</v>
+        <v>19880213</v>
       </c>
       <c r="P25" s="3" t="str">
         <f t="shared" ca="1" si="7"/>
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="Q25" s="1" t="s">
         <v>174</v>
@@ -2657,29 +2657,29 @@
       </c>
       <c r="E26" s="3" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>대구 동구 신암3동</v>
+        <v>대구 동구 신암2동</v>
       </c>
       <c r="F26" s="2" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>01042413160</v>
+        <v>01091604925</v>
       </c>
       <c r="G26" s="4" t="s">
         <v>56</v>
       </c>
       <c r="H26" s="3" t="str">
         <f t="shared" ca="1" si="2"/>
-        <v>모두가능</v>
+        <v>재택</v>
       </c>
       <c r="I26" s="2">
         <v>2024</v>
       </c>
-      <c r="J26" s="2" t="str">
+      <c r="J26" s="3" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>08</v>
+        <v>02</v>
       </c>
       <c r="K26" s="3">
         <f t="shared" ca="1" si="4"/>
-        <v>77</v>
+        <v>34</v>
       </c>
       <c r="M26" t="s">
         <v>124</v>
@@ -2690,11 +2690,11 @@
       </c>
       <c r="O26" s="5" t="str">
         <f t="shared" ca="1" si="6"/>
-        <v>19921201</v>
+        <v>19891012</v>
       </c>
       <c r="P26" s="3" t="str">
         <f t="shared" ca="1" si="7"/>
-        <v>20</v>
+        <v>08</v>
       </c>
       <c r="Q26" s="1" t="s">
         <v>175</v>
@@ -2721,40 +2721,40 @@
       </c>
       <c r="F27" s="2" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>01054582998</v>
+        <v>01036675096</v>
       </c>
       <c r="G27" s="4" t="s">
         <v>57</v>
       </c>
       <c r="H27" s="3" t="str">
         <f t="shared" ca="1" si="2"/>
-        <v>재택</v>
+        <v>출퇴근</v>
       </c>
       <c r="I27" s="2">
         <v>2024</v>
       </c>
-      <c r="J27" s="2" t="str">
+      <c r="J27" s="3" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>04</v>
+        <v>11</v>
       </c>
       <c r="K27" s="3">
         <f t="shared" ca="1" si="4"/>
-        <v>9</v>
+        <v>53</v>
       </c>
       <c r="M27" t="s">
         <v>125</v>
       </c>
       <c r="N27" t="str">
         <f t="shared" ca="1" si="5"/>
-        <v>세무학과</v>
+        <v>경제학과</v>
       </c>
       <c r="O27" s="5" t="str">
         <f t="shared" ca="1" si="6"/>
-        <v>19970924</v>
+        <v>19810420</v>
       </c>
       <c r="P27" s="3" t="str">
         <f t="shared" ca="1" si="7"/>
-        <v>14</v>
+        <v>07</v>
       </c>
       <c r="Q27" s="1" t="s">
         <v>176</v>
@@ -2777,44 +2777,44 @@
       </c>
       <c r="E28" s="3" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>대구 동구 신암3동</v>
+        <v>대구 중구 삼덕동</v>
       </c>
       <c r="F28" s="2" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>01048588188</v>
+        <v>01052368898</v>
       </c>
       <c r="G28" s="4" t="s">
         <v>58</v>
       </c>
       <c r="H28" s="3" t="str">
         <f t="shared" ca="1" si="2"/>
-        <v>재택</v>
+        <v>출퇴근</v>
       </c>
       <c r="I28" s="2">
         <v>2024</v>
       </c>
-      <c r="J28" s="2" t="str">
+      <c r="J28" s="3" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>09</v>
+        <v>10</v>
       </c>
       <c r="K28" s="3">
         <f t="shared" ca="1" si="4"/>
-        <v>48</v>
+        <v>74</v>
       </c>
       <c r="M28" t="s">
         <v>126</v>
       </c>
       <c r="N28" t="str">
         <f t="shared" ca="1" si="5"/>
-        <v>세무학과</v>
+        <v>경제학과</v>
       </c>
       <c r="O28" s="5" t="str">
         <f t="shared" ca="1" si="6"/>
-        <v>19851003</v>
+        <v>19950214</v>
       </c>
       <c r="P28" s="3" t="str">
         <f t="shared" ca="1" si="7"/>
-        <v>11</v>
+        <v>28</v>
       </c>
       <c r="Q28" s="1" t="s">
         <v>177</v>
@@ -2837,44 +2837,44 @@
       </c>
       <c r="E29" s="3" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>대구 동구 신암3동</v>
+        <v>대구 중구 삼덕동</v>
       </c>
       <c r="F29" s="2" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>01085172241</v>
+        <v>01093271909</v>
       </c>
       <c r="G29" s="4" t="s">
         <v>59</v>
       </c>
       <c r="H29" s="3" t="str">
         <f t="shared" ca="1" si="2"/>
-        <v>재택</v>
+        <v>출퇴근</v>
       </c>
       <c r="I29" s="2">
         <v>2024</v>
       </c>
-      <c r="J29" s="2" t="str">
+      <c r="J29" s="3" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>02</v>
+        <v>06</v>
       </c>
       <c r="K29" s="3">
         <f t="shared" ca="1" si="4"/>
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="M29" t="s">
         <v>127</v>
       </c>
       <c r="N29" t="str">
         <f t="shared" ca="1" si="5"/>
-        <v>경제학과</v>
+        <v>세무학과</v>
       </c>
       <c r="O29" s="5" t="str">
         <f t="shared" ca="1" si="6"/>
-        <v>19970322</v>
+        <v>19830410</v>
       </c>
       <c r="P29" s="3" t="str">
         <f t="shared" ca="1" si="7"/>
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="Q29" s="1" t="s">
         <v>178</v>
@@ -2897,44 +2897,44 @@
       </c>
       <c r="E30" s="3" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>대구 동구 신암2동</v>
+        <v>대구 동구 신암3동</v>
       </c>
       <c r="F30" s="2" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>01057446434</v>
+        <v>01089758684</v>
       </c>
       <c r="G30" s="4" t="s">
         <v>60</v>
       </c>
       <c r="H30" s="3" t="str">
         <f t="shared" ca="1" si="2"/>
-        <v>모두가능</v>
+        <v>재택</v>
       </c>
       <c r="I30" s="2">
         <v>2024</v>
       </c>
-      <c r="J30" s="2" t="str">
+      <c r="J30" s="3" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>01</v>
+        <v>07</v>
       </c>
       <c r="K30" s="3">
         <f t="shared" ca="1" si="4"/>
-        <v>59</v>
+        <v>8</v>
       </c>
       <c r="M30" t="s">
         <v>128</v>
       </c>
       <c r="N30" t="str">
         <f t="shared" ca="1" si="5"/>
-        <v>경제학과</v>
+        <v>경영학과</v>
       </c>
       <c r="O30" s="5" t="str">
         <f t="shared" ca="1" si="6"/>
-        <v>19821125</v>
+        <v>19940617</v>
       </c>
       <c r="P30" s="3" t="str">
         <f t="shared" ca="1" si="7"/>
-        <v>20</v>
+        <v>06</v>
       </c>
       <c r="Q30" s="1" t="s">
         <v>179</v>
@@ -2957,44 +2957,44 @@
       </c>
       <c r="E31" s="3" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>대구 중구 성내2동</v>
+        <v>대구 중구 성내1동</v>
       </c>
       <c r="F31" s="3" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>01037806338</v>
+        <v>01009502406</v>
       </c>
       <c r="G31" s="4" t="s">
         <v>78</v>
       </c>
       <c r="H31" s="3" t="str">
         <f t="shared" ca="1" si="2"/>
-        <v>재택</v>
+        <v>출퇴근</v>
       </c>
       <c r="I31" s="3">
         <v>2024</v>
       </c>
       <c r="J31" s="3" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>02</v>
+        <v>10</v>
       </c>
       <c r="K31" s="3">
         <f t="shared" ca="1" si="4"/>
-        <v>15</v>
+        <v>23</v>
       </c>
       <c r="M31" t="s">
         <v>129</v>
       </c>
       <c r="N31" t="str">
         <f t="shared" ca="1" si="5"/>
-        <v>경영학과</v>
+        <v>회계학과</v>
       </c>
       <c r="O31" s="5" t="str">
         <f t="shared" ca="1" si="6"/>
-        <v>19961217</v>
+        <v>19831020</v>
       </c>
       <c r="P31" s="3" t="str">
         <f t="shared" ca="1" si="7"/>
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="Q31" s="1" t="s">
         <v>180</v>
@@ -3015,11 +3015,11 @@
       </c>
       <c r="E32" s="3" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>대구 중구 삼덕동</v>
+        <v>대구 중구 남일동</v>
       </c>
       <c r="F32" s="3" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>01028462409</v>
+        <v>01016265256</v>
       </c>
       <c r="G32" s="4" t="s">
         <v>79</v>
@@ -3033,11 +3033,11 @@
       </c>
       <c r="J32" s="3" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>08</v>
+        <v>06</v>
       </c>
       <c r="K32" s="3">
         <f t="shared" ca="1" si="4"/>
-        <v>37</v>
+        <v>13</v>
       </c>
       <c r="M32" t="s">
         <v>130</v>
@@ -3048,11 +3048,11 @@
       </c>
       <c r="O32" s="5" t="str">
         <f t="shared" ca="1" si="6"/>
-        <v>19940703</v>
+        <v>19990607</v>
       </c>
       <c r="P32" s="3" t="str">
         <f t="shared" ca="1" si="7"/>
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="Q32" s="1" t="s">
         <v>181</v>
@@ -3073,18 +3073,18 @@
       </c>
       <c r="E33" s="3" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>대구 동구 신암3동</v>
+        <v>대구 동구 신암2동</v>
       </c>
       <c r="F33" s="3" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>01068142846</v>
+        <v>01078410922</v>
       </c>
       <c r="G33" s="4" t="s">
         <v>80</v>
       </c>
       <c r="H33" s="3" t="str">
         <f t="shared" ca="1" si="2"/>
-        <v>모두가능</v>
+        <v>재택</v>
       </c>
       <c r="I33" s="3">
         <v>2024</v>
@@ -3095,7 +3095,7 @@
       </c>
       <c r="K33" s="3">
         <f t="shared" ca="1" si="4"/>
-        <v>30</v>
+        <v>48</v>
       </c>
       <c r="M33" t="s">
         <v>131</v>
@@ -3106,11 +3106,11 @@
       </c>
       <c r="O33" s="5" t="str">
         <f t="shared" ca="1" si="6"/>
-        <v>19900612</v>
+        <v>19810216</v>
       </c>
       <c r="P33" s="3" t="str">
         <f t="shared" ca="1" si="7"/>
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="Q33" s="1" t="s">
         <v>182</v>
@@ -3131,44 +3131,44 @@
       </c>
       <c r="E34" s="3" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>대구 중구 동인동</v>
+        <v>대구 중구 남일동</v>
       </c>
       <c r="F34" s="3" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>01027235092</v>
+        <v>01024139060</v>
       </c>
       <c r="G34" s="4" t="s">
         <v>81</v>
       </c>
       <c r="H34" s="3" t="str">
         <f t="shared" ca="1" si="2"/>
-        <v>재택</v>
+        <v>모두가능</v>
       </c>
       <c r="I34" s="3">
         <v>2024</v>
       </c>
       <c r="J34" s="3" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>02</v>
+        <v>11</v>
       </c>
       <c r="K34" s="3">
         <f t="shared" ca="1" si="4"/>
-        <v>48</v>
+        <v>20</v>
       </c>
       <c r="M34" t="s">
         <v>132</v>
       </c>
       <c r="N34" t="str">
         <f t="shared" ca="1" si="5"/>
-        <v>경제학과</v>
+        <v>경영학과</v>
       </c>
       <c r="O34" s="5" t="str">
         <f t="shared" ca="1" si="6"/>
-        <v>19810115</v>
+        <v>19990501</v>
       </c>
       <c r="P34" s="3" t="str">
         <f t="shared" ca="1" si="7"/>
-        <v>1</v>
+        <v>05</v>
       </c>
       <c r="Q34" s="1" t="s">
         <v>183</v>
@@ -3189,29 +3189,29 @@
       </c>
       <c r="E35" s="3" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>대구 중구 삼덕동</v>
+        <v>대구 중구 성내1동</v>
       </c>
       <c r="F35" s="3" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>01069519008</v>
+        <v>01037524989</v>
       </c>
       <c r="G35" s="4" t="s">
         <v>82</v>
       </c>
       <c r="H35" s="3" t="str">
         <f t="shared" ca="1" si="2"/>
-        <v>재택</v>
+        <v>모두가능</v>
       </c>
       <c r="I35" s="3">
         <v>2024</v>
       </c>
       <c r="J35" s="3" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>03</v>
+        <v>11</v>
       </c>
       <c r="K35" s="3">
         <f t="shared" ca="1" si="4"/>
-        <v>20</v>
+        <v>54</v>
       </c>
       <c r="M35" t="s">
         <v>133</v>
@@ -3222,11 +3222,11 @@
       </c>
       <c r="O35" s="5" t="str">
         <f t="shared" ca="1" si="6"/>
-        <v>20001202</v>
+        <v>19880616</v>
       </c>
       <c r="P35" s="3" t="str">
         <f t="shared" ca="1" si="7"/>
-        <v>31</v>
+        <v>06</v>
       </c>
       <c r="Q35" s="1" t="s">
         <v>184</v>
@@ -3247,29 +3247,29 @@
       </c>
       <c r="E36" s="3" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>대구 중구 삼덕동</v>
+        <v>대구 중구 성내2동</v>
       </c>
       <c r="F36" s="3" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>01096215587</v>
+        <v>01047502817</v>
       </c>
       <c r="G36" s="4" t="s">
         <v>83</v>
       </c>
       <c r="H36" s="3" t="str">
         <f t="shared" ca="1" si="2"/>
-        <v>재택</v>
+        <v>출퇴근</v>
       </c>
       <c r="I36" s="3">
         <v>2024</v>
       </c>
       <c r="J36" s="3" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>03</v>
+        <v>05</v>
       </c>
       <c r="K36" s="3">
         <f t="shared" ca="1" si="4"/>
-        <v>3</v>
+        <v>14</v>
       </c>
       <c r="M36" t="s">
         <v>134</v>
@@ -3280,11 +3280,11 @@
       </c>
       <c r="O36" s="5" t="str">
         <f t="shared" ca="1" si="6"/>
-        <v>19910716</v>
+        <v>19981026</v>
       </c>
       <c r="P36" s="3" t="str">
         <f t="shared" ca="1" si="7"/>
-        <v>12</v>
+        <v>29</v>
       </c>
     </row>
     <row r="37" spans="1:17" x14ac:dyDescent="0.3">
@@ -3306,40 +3306,40 @@
       </c>
       <c r="F37" s="3" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>01047496352</v>
+        <v>01066869109</v>
       </c>
       <c r="G37" s="4" t="s">
         <v>84</v>
       </c>
       <c r="H37" s="3" t="str">
         <f t="shared" ca="1" si="2"/>
-        <v>재택</v>
+        <v>모두가능</v>
       </c>
       <c r="I37" s="3">
         <v>2024</v>
       </c>
       <c r="J37" s="3" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>01</v>
+        <v>02</v>
       </c>
       <c r="K37" s="3">
         <f t="shared" ca="1" si="4"/>
-        <v>78</v>
+        <v>67</v>
       </c>
       <c r="M37" t="s">
         <v>135</v>
       </c>
       <c r="N37" t="str">
         <f t="shared" ca="1" si="5"/>
-        <v>경영학과</v>
+        <v>회계학과</v>
       </c>
       <c r="O37" s="5" t="str">
         <f t="shared" ca="1" si="6"/>
-        <v>19880202</v>
+        <v>19990322</v>
       </c>
       <c r="P37" s="3" t="str">
         <f t="shared" ca="1" si="7"/>
-        <v>18</v>
+        <v>14</v>
       </c>
     </row>
     <row r="38" spans="1:17" x14ac:dyDescent="0.3">
@@ -3357,11 +3357,11 @@
       </c>
       <c r="E38" s="3" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>대구 중구 성내1동</v>
+        <v>대구 동구 신암2동</v>
       </c>
       <c r="F38" s="3" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>01046605039</v>
+        <v>01099667620</v>
       </c>
       <c r="G38" s="4" t="s">
         <v>85</v>
@@ -3375,26 +3375,26 @@
       </c>
       <c r="J38" s="3" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>04</v>
+        <v>09</v>
       </c>
       <c r="K38" s="3">
         <f t="shared" ca="1" si="4"/>
-        <v>21</v>
+        <v>62</v>
       </c>
       <c r="M38" t="s">
         <v>136</v>
       </c>
       <c r="N38" t="str">
         <f t="shared" ca="1" si="5"/>
-        <v>세무학과</v>
+        <v>경영학과</v>
       </c>
       <c r="O38" s="5" t="str">
         <f t="shared" ca="1" si="6"/>
-        <v>19880927</v>
+        <v>19980625</v>
       </c>
       <c r="P38" s="3" t="str">
         <f t="shared" ca="1" si="7"/>
-        <v>22</v>
+        <v>19</v>
       </c>
     </row>
     <row r="39" spans="1:17" x14ac:dyDescent="0.3">
@@ -3412,44 +3412,44 @@
       </c>
       <c r="E39" s="3" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>대구 동구 신암3동</v>
+        <v>대구 중구 동인동</v>
       </c>
       <c r="F39" s="3" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>01094440743</v>
+        <v>01010159763</v>
       </c>
       <c r="G39" s="4" t="s">
         <v>86</v>
       </c>
       <c r="H39" s="3" t="str">
         <f t="shared" ca="1" si="2"/>
-        <v>재택</v>
+        <v>모두가능</v>
       </c>
       <c r="I39" s="3">
         <v>2024</v>
       </c>
       <c r="J39" s="3" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>03</v>
+        <v>09</v>
       </c>
       <c r="K39" s="3">
         <f t="shared" ca="1" si="4"/>
-        <v>70</v>
+        <v>55</v>
       </c>
       <c r="M39" t="s">
         <v>137</v>
       </c>
       <c r="N39" t="str">
         <f t="shared" ca="1" si="5"/>
-        <v>세무학과</v>
+        <v>회계학과</v>
       </c>
       <c r="O39" s="5" t="str">
         <f t="shared" ca="1" si="6"/>
-        <v>19870627</v>
+        <v>19930226</v>
       </c>
       <c r="P39" s="3" t="str">
         <f t="shared" ca="1" si="7"/>
-        <v>19</v>
+        <v>27</v>
       </c>
     </row>
     <row r="40" spans="1:17" x14ac:dyDescent="0.3">
@@ -3467,29 +3467,29 @@
       </c>
       <c r="E40" s="3" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>대구 중구 삼덕동</v>
+        <v>대구 동구 신암3동</v>
       </c>
       <c r="F40" s="3" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>01068212758</v>
+        <v>01068163187</v>
       </c>
       <c r="G40" s="4" t="s">
         <v>87</v>
       </c>
       <c r="H40" s="3" t="str">
         <f t="shared" ca="1" si="2"/>
-        <v>모두가능</v>
+        <v>출퇴근</v>
       </c>
       <c r="I40" s="3">
         <v>2024</v>
       </c>
       <c r="J40" s="3" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>07</v>
+        <v>12</v>
       </c>
       <c r="K40" s="3">
         <f t="shared" ca="1" si="4"/>
-        <v>26</v>
+        <v>78</v>
       </c>
       <c r="M40" t="s">
         <v>138</v>
@@ -3500,11 +3500,11 @@
       </c>
       <c r="O40" s="5" t="str">
         <f t="shared" ca="1" si="6"/>
-        <v>19990924</v>
+        <v>19800101</v>
       </c>
       <c r="P40" s="3" t="str">
         <f t="shared" ca="1" si="7"/>
-        <v>1</v>
+        <v>07</v>
       </c>
     </row>
     <row r="41" spans="1:17" x14ac:dyDescent="0.3">
@@ -3522,44 +3522,44 @@
       </c>
       <c r="E41" s="3" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>대구 동구 신암3동</v>
+        <v>대구 중구 동인동</v>
       </c>
       <c r="F41" s="3" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>01038547204</v>
+        <v>01006720442</v>
       </c>
       <c r="G41" s="4" t="s">
         <v>88</v>
       </c>
       <c r="H41" s="3" t="str">
         <f t="shared" ca="1" si="2"/>
-        <v>모두가능</v>
+        <v>재택</v>
       </c>
       <c r="I41" s="3">
         <v>2024</v>
       </c>
       <c r="J41" s="3" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>01</v>
+        <v>10</v>
       </c>
       <c r="K41" s="3">
         <f t="shared" ca="1" si="4"/>
-        <v>82</v>
+        <v>7</v>
       </c>
       <c r="M41" t="s">
         <v>139</v>
       </c>
       <c r="N41" t="str">
         <f t="shared" ca="1" si="5"/>
-        <v>세무학과</v>
+        <v>경영학과</v>
       </c>
       <c r="O41" s="5" t="str">
         <f t="shared" ca="1" si="6"/>
-        <v>19810313</v>
+        <v>19930626</v>
       </c>
       <c r="P41" s="3" t="str">
         <f t="shared" ca="1" si="7"/>
-        <v>16</v>
+        <v>18</v>
       </c>
     </row>
     <row r="42" spans="1:17" x14ac:dyDescent="0.3">
@@ -3577,29 +3577,29 @@
       </c>
       <c r="E42" s="3" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>대구 중구 남일동</v>
+        <v>대구 동구 신암2동</v>
       </c>
       <c r="F42" s="3" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>01025762046</v>
+        <v>01078834081</v>
       </c>
       <c r="G42" s="4" t="s">
         <v>89</v>
       </c>
       <c r="H42" s="3" t="str">
         <f t="shared" ca="1" si="2"/>
-        <v>재택</v>
+        <v>출퇴근</v>
       </c>
       <c r="I42" s="3">
         <v>2024</v>
       </c>
       <c r="J42" s="3" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>05</v>
+        <v>01</v>
       </c>
       <c r="K42" s="3">
         <f t="shared" ca="1" si="4"/>
-        <v>13</v>
+        <v>36</v>
       </c>
       <c r="M42" t="s">
         <v>110</v>
@@ -3610,11 +3610,11 @@
       </c>
       <c r="O42" s="5" t="str">
         <f t="shared" ca="1" si="6"/>
-        <v>19920406</v>
+        <v>19800505</v>
       </c>
       <c r="P42" s="3" t="str">
         <f t="shared" ca="1" si="7"/>
-        <v>23</v>
+        <v>16</v>
       </c>
     </row>
     <row r="43" spans="1:17" x14ac:dyDescent="0.3">
@@ -3632,44 +3632,44 @@
       </c>
       <c r="E43" s="3" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>대구 동구 신암3동</v>
+        <v>대구 중구 성내1동</v>
       </c>
       <c r="F43" s="3" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>01063868655</v>
+        <v>01036696346</v>
       </c>
       <c r="G43" s="4" t="s">
         <v>90</v>
       </c>
       <c r="H43" s="3" t="str">
         <f t="shared" ca="1" si="2"/>
-        <v>출퇴근</v>
+        <v>모두가능</v>
       </c>
       <c r="I43" s="3">
         <v>2024</v>
       </c>
       <c r="J43" s="3" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>06</v>
+        <v>01</v>
       </c>
       <c r="K43" s="3">
         <f t="shared" ca="1" si="4"/>
-        <v>47</v>
+        <v>29</v>
       </c>
       <c r="M43" t="s">
         <v>111</v>
       </c>
       <c r="N43" t="str">
         <f t="shared" ca="1" si="5"/>
-        <v>경영학과</v>
+        <v>경제학과</v>
       </c>
       <c r="O43" s="5" t="str">
         <f t="shared" ca="1" si="6"/>
-        <v>19970621</v>
+        <v>19871215</v>
       </c>
       <c r="P43" s="3" t="str">
         <f t="shared" ca="1" si="7"/>
-        <v>1</v>
+        <v>07</v>
       </c>
     </row>
     <row r="44" spans="1:17" x14ac:dyDescent="0.3">
@@ -3687,44 +3687,44 @@
       </c>
       <c r="E44" s="3" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>대구 동구 신암3동</v>
+        <v>대구 중구 성내2동</v>
       </c>
       <c r="F44" s="3" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>01014146268</v>
+        <v>01012876364</v>
       </c>
       <c r="G44" s="4" t="s">
         <v>91</v>
       </c>
       <c r="H44" s="3" t="str">
         <f t="shared" ca="1" si="2"/>
-        <v>재택</v>
+        <v>출퇴근</v>
       </c>
       <c r="I44" s="3">
         <v>2024</v>
       </c>
       <c r="J44" s="3" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>04</v>
+        <v>12</v>
       </c>
       <c r="K44" s="3">
         <f t="shared" ca="1" si="4"/>
-        <v>12</v>
+        <v>65</v>
       </c>
       <c r="M44" t="s">
         <v>112</v>
       </c>
       <c r="N44" t="str">
         <f t="shared" ca="1" si="5"/>
-        <v>경영학과</v>
+        <v>세무학과</v>
       </c>
       <c r="O44" s="5" t="str">
         <f t="shared" ca="1" si="6"/>
-        <v>19890407</v>
+        <v>19870224</v>
       </c>
       <c r="P44" s="3" t="str">
         <f t="shared" ca="1" si="7"/>
-        <v>28</v>
+        <v>25</v>
       </c>
     </row>
     <row r="45" spans="1:17" x14ac:dyDescent="0.3">
@@ -3742,29 +3742,29 @@
       </c>
       <c r="E45" s="3" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>대구 중구 성내1동</v>
+        <v>대구 동구 신암3동</v>
       </c>
       <c r="F45" s="3" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>01059622880</v>
+        <v>01068309700</v>
       </c>
       <c r="G45" s="4" t="s">
         <v>92</v>
       </c>
       <c r="H45" s="3" t="str">
         <f t="shared" ca="1" si="2"/>
-        <v>모두가능</v>
+        <v>재택</v>
       </c>
       <c r="I45" s="3">
         <v>2024</v>
       </c>
       <c r="J45" s="3" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>03</v>
+        <v>01</v>
       </c>
       <c r="K45" s="3">
         <f t="shared" ca="1" si="4"/>
-        <v>41</v>
+        <v>82</v>
       </c>
       <c r="M45" t="s">
         <v>113</v>
@@ -3775,11 +3775,11 @@
       </c>
       <c r="O45" s="5" t="str">
         <f t="shared" ca="1" si="6"/>
-        <v>19831031</v>
+        <v>20000214</v>
       </c>
       <c r="P45" s="3" t="str">
         <f t="shared" ca="1" si="7"/>
-        <v>15</v>
+        <v>30</v>
       </c>
     </row>
     <row r="46" spans="1:17" x14ac:dyDescent="0.3">
@@ -3797,11 +3797,11 @@
       </c>
       <c r="E46" s="3" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>대구 중구 성내2동</v>
+        <v>대구 중구 남일동</v>
       </c>
       <c r="F46" s="3" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>01029421494</v>
+        <v>01094647401</v>
       </c>
       <c r="G46" s="4" t="s">
         <v>93</v>
@@ -3815,26 +3815,26 @@
       </c>
       <c r="J46" s="3" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>07</v>
+        <v>08</v>
       </c>
       <c r="K46" s="3">
         <f t="shared" ca="1" si="4"/>
-        <v>32</v>
+        <v>43</v>
       </c>
       <c r="M46" t="s">
         <v>114</v>
       </c>
       <c r="N46" t="str">
         <f t="shared" ca="1" si="5"/>
-        <v>회계학과</v>
+        <v>경제학과</v>
       </c>
       <c r="O46" s="5" t="str">
         <f t="shared" ca="1" si="6"/>
-        <v>19931010</v>
+        <v>19940513</v>
       </c>
       <c r="P46" s="3" t="str">
         <f t="shared" ca="1" si="7"/>
-        <v>9</v>
+        <v>05</v>
       </c>
     </row>
     <row r="47" spans="1:17" x14ac:dyDescent="0.3">
@@ -3856,40 +3856,40 @@
       </c>
       <c r="F47" s="3" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>01048718843</v>
+        <v>01063147996</v>
       </c>
       <c r="G47" s="4" t="s">
         <v>94</v>
       </c>
       <c r="H47" s="3" t="str">
         <f t="shared" ca="1" si="2"/>
-        <v>출퇴근</v>
+        <v>재택</v>
       </c>
       <c r="I47" s="3">
         <v>2024</v>
       </c>
       <c r="J47" s="3" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>08</v>
+        <v>10</v>
       </c>
       <c r="K47" s="3">
         <f t="shared" ca="1" si="4"/>
-        <v>38</v>
+        <v>48</v>
       </c>
       <c r="M47" t="s">
         <v>115</v>
       </c>
       <c r="N47" t="str">
         <f t="shared" ca="1" si="5"/>
-        <v>회계학과</v>
+        <v>세무학과</v>
       </c>
       <c r="O47" s="5" t="str">
         <f t="shared" ca="1" si="6"/>
-        <v>19891224</v>
+        <v>19800801</v>
       </c>
       <c r="P47" s="3" t="str">
         <f t="shared" ca="1" si="7"/>
-        <v>14</v>
+        <v>16</v>
       </c>
     </row>
     <row r="48" spans="1:17" x14ac:dyDescent="0.3">
@@ -3907,44 +3907,44 @@
       </c>
       <c r="E48" s="3" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>대구 동구 신암1동</v>
+        <v>대구 중구 성내2동</v>
       </c>
       <c r="F48" s="3" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>01034288208</v>
+        <v>01072155195</v>
       </c>
       <c r="G48" s="4" t="s">
         <v>95</v>
       </c>
       <c r="H48" s="3" t="str">
         <f t="shared" ca="1" si="2"/>
-        <v>재택</v>
+        <v>모두가능</v>
       </c>
       <c r="I48" s="3">
         <v>2024</v>
       </c>
       <c r="J48" s="3" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>08</v>
+        <v>04</v>
       </c>
       <c r="K48" s="3">
         <f t="shared" ca="1" si="4"/>
-        <v>39</v>
+        <v>59</v>
       </c>
       <c r="M48" t="s">
         <v>116</v>
       </c>
       <c r="N48" t="str">
         <f t="shared" ca="1" si="5"/>
-        <v>경영학과</v>
+        <v>회계학과</v>
       </c>
       <c r="O48" s="5" t="str">
         <f t="shared" ca="1" si="6"/>
-        <v>19891009</v>
+        <v>19880602</v>
       </c>
       <c r="P48" s="3" t="str">
         <f t="shared" ca="1" si="7"/>
-        <v>31</v>
+        <v>17</v>
       </c>
     </row>
     <row r="49" spans="1:16" x14ac:dyDescent="0.3">
@@ -3962,44 +3962,44 @@
       </c>
       <c r="E49" s="3" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>대구 중구 남일동</v>
+        <v>대구 동구 신암1동</v>
       </c>
       <c r="F49" s="3" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>01062817631</v>
+        <v>01034955963</v>
       </c>
       <c r="G49" s="4" t="s">
         <v>96</v>
       </c>
       <c r="H49" s="3" t="str">
         <f t="shared" ca="1" si="2"/>
-        <v>모두가능</v>
+        <v>출퇴근</v>
       </c>
       <c r="I49" s="3">
         <v>2024</v>
       </c>
       <c r="J49" s="3" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>03</v>
+        <v>04</v>
       </c>
       <c r="K49" s="3">
         <f t="shared" ca="1" si="4"/>
-        <v>26</v>
+        <v>75</v>
       </c>
       <c r="M49" t="s">
         <v>117</v>
       </c>
       <c r="N49" t="str">
         <f t="shared" ca="1" si="5"/>
-        <v>세무학과</v>
+        <v>회계학과</v>
       </c>
       <c r="O49" s="5" t="str">
         <f t="shared" ca="1" si="6"/>
-        <v>19920226</v>
+        <v>19870531</v>
       </c>
       <c r="P49" s="3" t="str">
         <f t="shared" ca="1" si="7"/>
-        <v>6</v>
+        <v>15</v>
       </c>
     </row>
     <row r="50" spans="1:16" x14ac:dyDescent="0.3">
@@ -4017,44 +4017,44 @@
       </c>
       <c r="E50" s="3" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>대구 중구 성내2동</v>
+        <v>대구 중구 동인동</v>
       </c>
       <c r="F50" s="3" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>01058334508</v>
+        <v>01050225670</v>
       </c>
       <c r="G50" s="4" t="s">
         <v>97</v>
       </c>
       <c r="H50" s="3" t="str">
         <f t="shared" ca="1" si="2"/>
-        <v>모두가능</v>
+        <v>재택</v>
       </c>
       <c r="I50" s="3">
         <v>2024</v>
       </c>
       <c r="J50" s="3" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>04</v>
+        <v>11</v>
       </c>
       <c r="K50" s="3">
         <f t="shared" ca="1" si="4"/>
-        <v>71</v>
+        <v>29</v>
       </c>
       <c r="M50" t="s">
         <v>132</v>
       </c>
       <c r="N50" t="str">
         <f t="shared" ca="1" si="5"/>
-        <v>회계학과</v>
+        <v>세무학과</v>
       </c>
       <c r="O50" s="5" t="str">
         <f t="shared" ca="1" si="6"/>
-        <v>19841220</v>
+        <v>19840617</v>
       </c>
       <c r="P50" s="3" t="str">
         <f t="shared" ca="1" si="7"/>
-        <v>27</v>
+        <v>05</v>
       </c>
     </row>
     <row r="51" spans="1:16" x14ac:dyDescent="0.3">
@@ -4072,44 +4072,44 @@
       </c>
       <c r="E51" s="3" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>대구 중구 남일동</v>
+        <v>대구 중구 성내2동</v>
       </c>
       <c r="F51" s="3" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>01073631970</v>
+        <v>01038195401</v>
       </c>
       <c r="G51" s="4" t="s">
         <v>98</v>
       </c>
       <c r="H51" s="3" t="str">
         <f t="shared" ca="1" si="2"/>
-        <v>재택</v>
+        <v>모두가능</v>
       </c>
       <c r="I51" s="3">
         <v>2024</v>
       </c>
       <c r="J51" s="3" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>07</v>
+        <v>06</v>
       </c>
       <c r="K51" s="3">
         <f t="shared" ca="1" si="4"/>
-        <v>28</v>
+        <v>1</v>
       </c>
       <c r="M51" t="s">
         <v>133</v>
       </c>
       <c r="N51" t="str">
         <f t="shared" ca="1" si="5"/>
-        <v>경제학과</v>
+        <v>경영학과</v>
       </c>
       <c r="O51" s="5" t="str">
         <f t="shared" ca="1" si="6"/>
-        <v>19930716</v>
+        <v>19870119</v>
       </c>
       <c r="P51" s="3" t="str">
         <f t="shared" ca="1" si="7"/>
-        <v>20</v>
+        <v>17</v>
       </c>
     </row>
     <row r="52" spans="1:16" x14ac:dyDescent="0.3">
